--- a/DataSheet/FOS3.xlsx
+++ b/DataSheet/FOS3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55E80B7-D395-4BBE-AF24-7FB2277E32B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22F18E3-C005-4CF4-8D14-529D288DF531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="187">
   <si>
     <t>Si_No</t>
   </si>
@@ -247,9 +247,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>START_APPLICATION</t>
   </si>
   <si>
@@ -545,13 +542,119 @@
   </si>
   <si>
     <t>37</t>
+  </si>
+  <si>
+    <t>ScrollUsingCoordinate</t>
+  </si>
+  <si>
+    <t>(//*[@class='android.widget.CheckBox'])[2]</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="PAN Verification"])[2]</t>
+  </si>
+  <si>
+    <r>
+      <t>(//android.view.View[@content-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF3F7F5F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>desc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3F7F5F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="Proof Of Identity"])[2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF3F7F5F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>desc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3F7F5F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF3F7F5F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Aadhaar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3F7F5F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Card(Preferred)"]/android.view.View</t>
+    </r>
+  </si>
+  <si>
+    <t>ScrollIntoElement</t>
+  </si>
+  <si>
+    <t>POI_ScrollTo_DL</t>
+  </si>
+  <si>
+    <t>Driving License</t>
+  </si>
+  <si>
+    <t>WAIT(4000)</t>
+  </si>
+  <si>
+    <t>CoordinateScrollforPanForm60</t>
+  </si>
+  <si>
+    <t>CoordinateScrollForm60ToPAN</t>
+  </si>
+  <si>
+    <t>WAIT(9000)</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Driving License"]</t>
+  </si>
+  <si>
+    <t>500.1943.547.950</t>
+  </si>
+  <si>
+    <t>487.783.390.1893</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,8 +687,21 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,25 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,20 +736,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A38"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,13 +1156,13 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -1087,19 +1185,19 @@
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N3" t="s">
         <v>25</v>
@@ -1122,25 +1220,25 @@
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1160,31 +1258,31 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N5" t="s">
         <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1210,13 +1308,13 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -1248,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s">
         <v>60</v>
@@ -1286,13 +1384,13 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s">
         <v>61</v>
@@ -1324,13 +1422,13 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
         <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N9" t="s">
         <v>62</v>
@@ -1360,16 +1458,16 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O10" t="s">
         <v>63</v>
@@ -1383,7 +1481,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1398,25 +1496,25 @@
         <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
         <v>67</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N11" t="s">
         <v>68</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1427,7 +1525,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1448,13 +1546,13 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
         <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s">
         <v>69</v>
@@ -1471,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1483,13 +1581,13 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s">
         <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N13" t="s">
         <v>70</v>
@@ -1506,40 +1604,40 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" t="s">
         <v>111</v>
       </c>
-      <c r="L14" t="s">
-        <v>112</v>
-      </c>
       <c r="M14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1550,16 +1648,16 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -1571,16 +1669,16 @@
         <v>17</v>
       </c>
       <c r="K15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" t="s">
         <v>111</v>
       </c>
-      <c r="L15" t="s">
-        <v>112</v>
-      </c>
       <c r="M15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O15" t="s">
         <v>66</v>
@@ -1594,7 +1692,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1606,16 +1704,16 @@
         <v>17</v>
       </c>
       <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" t="s">
         <v>111</v>
       </c>
-      <c r="L16" t="s">
-        <v>112</v>
-      </c>
       <c r="M16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O16" t="s">
         <v>58</v>
@@ -1623,13 +1721,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1638,42 +1736,42 @@
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
       </c>
       <c r="K17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" t="s">
         <v>111</v>
       </c>
-      <c r="L17" t="s">
-        <v>112</v>
-      </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1682,7 +1780,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
         <v>29</v>
@@ -1694,30 +1792,30 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" t="s">
         <v>111</v>
       </c>
-      <c r="L18" t="s">
-        <v>112</v>
-      </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -1726,42 +1824,42 @@
         <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -1770,7 +1868,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -1782,30 +1880,30 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -1813,43 +1911,43 @@
       <c r="E21" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>83</v>
+      <c r="F21" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -1857,8 +1955,8 @@
       <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>83</v>
+      <c r="F22" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
@@ -1870,30 +1968,30 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
@@ -1901,8 +1999,8 @@
       <c r="E23" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>84</v>
+      <c r="F23" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
@@ -1914,30 +2012,30 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -1945,43 +2043,43 @@
       <c r="E24" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>85</v>
+      <c r="F24" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -1989,8 +2087,8 @@
       <c r="E25" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>85</v>
+      <c r="F25" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -2002,65 +2100,65 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
@@ -2068,43 +2166,43 @@
       <c r="E27" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>86</v>
+      <c r="F27" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
@@ -2112,8 +2210,8 @@
       <c r="E28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>86</v>
+      <c r="F28" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -2125,30 +2223,30 @@
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -2157,7 +2255,7 @@
         <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
@@ -2169,30 +2267,30 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
@@ -2201,42 +2299,42 @@
         <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -2245,7 +2343,7 @@
         <v>39</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -2257,30 +2355,30 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -2289,42 +2387,42 @@
         <v>39</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -2333,7 +2431,7 @@
         <v>39</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -2345,30 +2443,30 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -2377,51 +2475,51 @@
         <v>39</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G34" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
       </c>
       <c r="E35" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -2433,83 +2531,83 @@
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s">
         <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -2521,58 +2619,532 @@
         <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L38" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" t="s">
+        <v>120</v>
+      </c>
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+      <c r="O38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
+        <v>110</v>
+      </c>
+      <c r="L39" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" t="s">
+        <v>122</v>
+      </c>
+      <c r="N39" t="s">
+        <v>142</v>
+      </c>
+      <c r="O39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40" t="s">
+        <v>112</v>
+      </c>
+      <c r="M40" t="s">
+        <v>122</v>
+      </c>
+      <c r="N40" t="s">
+        <v>142</v>
+      </c>
+      <c r="O40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
+        <v>110</v>
+      </c>
+      <c r="L41" t="s">
+        <v>67</v>
+      </c>
+      <c r="M41" t="s">
+        <v>120</v>
+      </c>
+      <c r="N41" t="s">
+        <v>70</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>110</v>
+      </c>
+      <c r="L42" t="s">
+        <v>112</v>
+      </c>
+      <c r="M42" t="s">
+        <v>122</v>
+      </c>
+      <c r="N42" t="s">
+        <v>142</v>
+      </c>
+      <c r="O42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>110</v>
+      </c>
+      <c r="L43" t="s">
+        <v>112</v>
+      </c>
+      <c r="M43" t="s">
+        <v>122</v>
+      </c>
+      <c r="N43" t="s">
+        <v>142</v>
+      </c>
+      <c r="O43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
+        <v>110</v>
+      </c>
+      <c r="L44" t="s">
+        <v>112</v>
+      </c>
+      <c r="M44" t="s">
+        <v>122</v>
+      </c>
+      <c r="N44" t="s">
+        <v>142</v>
+      </c>
+      <c r="O44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
+        <v>110</v>
+      </c>
+      <c r="L45" t="s">
+        <v>112</v>
+      </c>
+      <c r="M45" t="s">
+        <v>122</v>
+      </c>
+      <c r="N45" t="s">
+        <v>142</v>
+      </c>
+      <c r="O45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>110</v>
+      </c>
+      <c r="L46" t="s">
+        <v>112</v>
+      </c>
+      <c r="M46" t="s">
+        <v>122</v>
+      </c>
+      <c r="N46" t="s">
+        <v>142</v>
+      </c>
+      <c r="O46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
+        <v>110</v>
+      </c>
+      <c r="L47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" t="s">
+        <v>120</v>
+      </c>
+      <c r="N47" t="s">
+        <v>70</v>
+      </c>
+      <c r="O47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" t="s">
+        <v>112</v>
+      </c>
+      <c r="M48" t="s">
+        <v>122</v>
+      </c>
+      <c r="N48" t="s">
+        <v>142</v>
+      </c>
+      <c r="O48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" t="s">
+        <v>67</v>
+      </c>
+      <c r="M49" t="s">
+        <v>120</v>
+      </c>
+      <c r="N49" t="s">
+        <v>70</v>
+      </c>
+      <c r="O49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J38" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" t="s">
-        <v>111</v>
-      </c>
-      <c r="L38" t="s">
-        <v>113</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s">
+        <v>110</v>
+      </c>
+      <c r="L50" t="s">
+        <v>112</v>
+      </c>
+      <c r="M50" t="s">
         <v>65</v>
       </c>
-      <c r="N38" t="s">
-        <v>144</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="N50" t="s">
+        <v>143</v>
+      </c>
+      <c r="O50" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F42" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2582,10 +3154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2595,9 +3167,12 @@
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2625,8 +3200,17 @@
       <c r="I1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2643,16 +3227,63 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>8</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/FOS3.xlsx
+++ b/DataSheet/FOS3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22F18E3-C005-4CF4-8D14-529D288DF531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C1E466-4C18-4EF4-8C69-4D50AFB3473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="242">
   <si>
     <t>Si_No</t>
   </si>
@@ -160,48 +160,6 @@
     <t>QUIT</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Wait 2 second</t>
   </si>
   <si>
@@ -244,9 +202,6 @@
     <t>ExecutionStart Count Time</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>START_APPLICATION</t>
   </si>
   <si>
@@ -259,12 +214,6 @@
     <t>CheckVisibility</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>//*[@bounds='[55,553][1025,1158]']</t>
   </si>
   <si>
@@ -301,63 +250,6 @@
     <t>Applicant Consent</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FOS Application Functionality</t>
   </si>
   <si>
@@ -517,9 +409,6 @@
     <t>Click on "Consent Successfully Pop-up Proceed" Button</t>
   </si>
   <si>
-    <t>WAIT(6000)</t>
-  </si>
-  <si>
     <t>Wait 6 second</t>
   </si>
   <si>
@@ -539,12 +428,6 @@
   </si>
   <si>
     <t>Verify "Mahidra Finance" logo are Displayed</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>ScrollUsingCoordinate</t>
   </si>
   <si>
     <t>(//*[@class='android.widget.CheckBox'])[2]</t>
@@ -620,9 +503,6 @@
     </r>
   </si>
   <si>
-    <t>ScrollIntoElement</t>
-  </si>
-  <si>
     <t>POI_ScrollTo_DL</t>
   </si>
   <si>
@@ -648,6 +528,291 @@
   </si>
   <si>
     <t>487.783.390.1893</t>
+  </si>
+  <si>
+    <t>ScrollUsingCoordinate(487,783,390,1893)</t>
+  </si>
+  <si>
+    <t>ScrollUsingCoordinate(500,1943,547,950)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Applications"]/following-sibling::android.widget.Button)[1]</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>SendKeys</t>
+  </si>
+  <si>
+    <t>ApplicationID</t>
+  </si>
+  <si>
+    <t>HideKeyBoard</t>
+  </si>
+  <si>
+    <t>//*[@class='android.widget.EditText']//following-sibling::android.widget.Button</t>
+  </si>
+  <si>
+    <t>WAIT(3000)</t>
+  </si>
+  <si>
+    <t>android.widget.EditText</t>
+  </si>
+  <si>
+    <t>WAIT(10000)</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Document Upload"]//following-sibling::android.widget.CheckBox)[2]</t>
+  </si>
+  <si>
+    <t>ScrollIntoElementIntoText</t>
+  </si>
+  <si>
+    <t>ScrollIntoElementIntoContentDesc</t>
+  </si>
+  <si>
+    <t>KYC</t>
+  </si>
+  <si>
+    <t>POA</t>
+  </si>
+  <si>
+    <t>BANKING</t>
+  </si>
+  <si>
+    <t>Bank statement2</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>AssetReleatedDocument</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"Photo")]/android.widget.Button</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Add Image"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Save Document"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Save and Upload"]</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"Photo")]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"Bank statement1")]/android.widget.Button</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"Bank statement1")]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"Proforma Invoice")]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"Proforma Invoice")]/android.widget.Button</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Proceed"]</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="KYC Details"])[1]</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Personal &amp; Contact Details"])[1]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Father Name"]/android.view.View/android.widget.EditText</t>
+  </si>
+  <si>
+    <t>ApplicantFatherName</t>
+  </si>
+  <si>
+    <t>Hello BABA</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Mother Name"]/android.view.View/android.widget.EditText</t>
+  </si>
+  <si>
+    <t>ApplicantMotherName</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Religion"]/android.view.View/android.view.View</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Hindu"]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Category"]/android.view.View/android.view.View</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="OBC"]</t>
+  </si>
+  <si>
+    <t>ScrollUsingCoordinate(510,1920,530,867)</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="PSL Details"])[1]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="PSL Category"]/android.view.View/android.view.View</t>
+  </si>
+  <si>
+    <t>PSL</t>
+  </si>
+  <si>
+    <t>Non PSL</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Banking Details"])[1]</t>
+  </si>
+  <si>
+    <t>ScrollUsingCoordinate(500,1920,480,1273)</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="IFSC code"]/android.widget.EditText</t>
+  </si>
+  <si>
+    <t>IFSC</t>
+  </si>
+  <si>
+    <t>SBIN0000046</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="SBIN0000046"]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Account Number"]/android.view.View/android.widget.EditText</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.view.View[@content-desc="Account Type"]/android.view.View/android.view.View </t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Savings"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Verify"]</t>
+  </si>
+  <si>
+    <t>android.widget.CheckBox</t>
+  </si>
+  <si>
+    <t>ScrollUsingCoordinate(513,1893,567,1120)</t>
+  </si>
+  <si>
+    <t>Hello Maa</t>
+  </si>
+  <si>
+    <t>ScrollUsingCoordinate(487,1897,517,500)</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Non PSL"]</t>
+  </si>
+  <si>
+    <t>ScrollUsingCoordinate(470,1897,480,1400)</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"Sanction")]</t>
+  </si>
+  <si>
+    <t>ScrollUsingCoordinate(453,2170,510,1107)</t>
+  </si>
+  <si>
+    <t>ScrollDownLittleBit</t>
+  </si>
+  <si>
+    <t>PostSanctionDocumentUpload</t>
+  </si>
+  <si>
+    <t>Personal&amp;ContactDetails</t>
+  </si>
+  <si>
+    <t>PSL Details</t>
+  </si>
+  <si>
+    <t>Banking Details</t>
+  </si>
+  <si>
+    <t>Post Sanction Proceed</t>
+  </si>
+  <si>
+    <t>PostSanctionDocumentUpload Proceed</t>
+  </si>
+  <si>
+    <t>ClickOnSearchApplication</t>
+  </si>
+  <si>
+    <t>MF24120300000645</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Generate PDF"]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Generating Documents"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.widget.Button[@content-desc="Proceed"] </t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="E-stamping successful!"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="OK"]</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Send link"])[2]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="crossButton"]</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>CoordinateClick</t>
+  </si>
+  <si>
+    <t>(//android.widget.Button[@content-desc="Add New"])[1]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Add New"]</t>
+  </si>
+  <si>
+    <t>Banking details</t>
+  </si>
+  <si>
+    <t>download button</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,'Select Mode for ACH Mandate')]/android.widget.RadioButton[2]</t>
+  </si>
+  <si>
+    <t>(//*[@class="android.widget.ScrollView"]/android.view.View/android.widget.EditText)[1]</t>
+  </si>
+  <si>
+    <t>SPDC</t>
+  </si>
+  <si>
+    <t>(//*[@class="android.widget.ScrollView"]/android.view.View/android.widget.EditText)[2]</t>
+  </si>
+  <si>
+    <t>PDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.widget.Button[@content-desc="Add New"] </t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,'Disbursement Type')]</t>
   </si>
 </sst>
 </file>
@@ -701,7 +866,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +876,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -750,6 +927,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,20 +1244,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="74" workbookViewId="0">
+      <selection activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -1137,8 +1317,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1156,24 +1336,25 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1185,30 +1366,31 @@
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s">
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A54" si="0">A3+1</f>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1220,30 +1402,31 @@
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1258,36 +1441,37 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
         <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1308,13 +1492,13 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -1324,8 +1508,9 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>49</v>
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1346,24 +1531,25 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="O7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1384,24 +1570,25 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="O8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>51</v>
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1422,24 +1609,25 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
         <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1458,30 +1646,31 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1496,36 +1685,37 @@
         <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>54</v>
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1546,30 +1736,31 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="N12" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>55</v>
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1581,121 +1772,124 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>56</v>
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="O14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" t="s">
-        <v>111</v>
-      </c>
       <c r="M15" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>72</v>
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>33</v>
@@ -1704,171 +1898,175 @@
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="M16" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>77</v>
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="M17" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="N17" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="O17" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>78</v>
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
         <v>39</v>
       </c>
       <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" t="s">
         <v>81</v>
       </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" t="s">
-        <v>121</v>
-      </c>
-      <c r="N18" t="s">
-        <v>117</v>
-      </c>
       <c r="O18" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>91</v>
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="O19" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>92</v>
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -1880,215 +2078,220 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M20" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="O20" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>93</v>
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
       </c>
       <c r="K21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" t="s">
         <v>110</v>
       </c>
-      <c r="L21" t="s">
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" t="s">
         <v>112</v>
       </c>
-      <c r="M21" t="s">
-        <v>122</v>
-      </c>
-      <c r="N21" t="s">
-        <v>126</v>
-      </c>
-      <c r="O21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" t="s">
-        <v>112</v>
-      </c>
-      <c r="M22" t="s">
-        <v>122</v>
-      </c>
-      <c r="N22" t="s">
-        <v>127</v>
-      </c>
-      <c r="O22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" t="s">
-        <v>112</v>
-      </c>
-      <c r="M23" t="s">
-        <v>122</v>
-      </c>
-      <c r="N23" t="s">
-        <v>128</v>
-      </c>
-      <c r="O23" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>96</v>
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L24" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M24" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="O24" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>97</v>
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -2100,118 +2303,121 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="O25" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>98</v>
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="O26" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>99</v>
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M27" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" t="s">
+        <v>96</v>
+      </c>
+      <c r="O27" t="s">
         <v>122</v>
       </c>
-      <c r="N27" t="s">
-        <v>132</v>
-      </c>
-      <c r="O27" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>100</v>
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
         <v>39</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -2223,39 +2429,40 @@
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O28" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>101</v>
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
         <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
@@ -2267,83 +2474,85 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L29" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M29" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N29" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="O29" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>102</v>
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
         <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N30" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="O30" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>103</v>
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -2355,83 +2564,85 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N31" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="O31" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>104</v>
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L32" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M32" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N32" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="O32" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>105</v>
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
         <v>39</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -2443,83 +2654,85 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L33" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M33" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N33" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="O33" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>106</v>
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="G34" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L34" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M34" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N34" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="O34" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>107</v>
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -2531,83 +2744,85 @@
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L35" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M35" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N35" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="O35" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>108</v>
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J36" t="s">
         <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L36" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M36" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N36" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="O36" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>109</v>
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -2619,113 +2834,116 @@
         <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L37" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M37" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N37" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="O37" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>55</v>
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="J38" t="s">
         <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L38" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="N38" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="O38" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>109</v>
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="J39" t="s">
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L39" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M39" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N39" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="O39" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>109</v>
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
         <v>39</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="G40" t="s">
         <v>29</v>
@@ -2737,33 +2955,34 @@
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L40" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M40" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N40" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="O40" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>55</v>
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>33</v>
@@ -2772,78 +2991,77 @@
         <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L41" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M41" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="N41" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="O41" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>109</v>
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" t="s">
-        <v>182</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="J42" t="s">
         <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L42" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M42" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N42" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="O42" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>109</v>
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
         <v>39</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -2855,39 +3073,40 @@
         <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L43" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M43" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N43" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="O43" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>109</v>
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
         <v>39</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -2899,39 +3118,40 @@
         <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L44" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M44" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N44" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="O44" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>109</v>
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -2943,72 +3163,74 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L45" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M45" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N45" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="O45" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>109</v>
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L46" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M46" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N46" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="O46" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>55</v>
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>33</v>
@@ -3017,112 +3239,115 @@
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L47" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M47" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="N47" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
+        <v>74</v>
+      </c>
+      <c r="L48" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N48" t="s">
+        <v>106</v>
+      </c>
+      <c r="O48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
         <v>70</v>
       </c>
-      <c r="O47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" t="s">
-        <v>110</v>
-      </c>
-      <c r="L48" t="s">
-        <v>112</v>
-      </c>
-      <c r="M48" t="s">
-        <v>122</v>
-      </c>
-      <c r="N48" t="s">
-        <v>142</v>
-      </c>
-      <c r="O48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" t="s">
-        <v>16</v>
+      <c r="D49" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="J49" t="s">
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L49" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M49" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="N49" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="O49" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>171</v>
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>43</v>
@@ -3131,19 +3356,5729 @@
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L50" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N50" t="s">
+        <v>107</v>
+      </c>
+      <c r="O50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
+        <v>74</v>
+      </c>
+      <c r="L51" t="s">
+        <v>76</v>
+      </c>
+      <c r="M51" t="s">
+        <v>86</v>
+      </c>
+      <c r="N51" t="s">
+        <v>106</v>
+      </c>
+      <c r="O51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
+        <v>74</v>
+      </c>
+      <c r="L52" t="s">
+        <v>76</v>
+      </c>
+      <c r="M52" t="s">
+        <v>86</v>
+      </c>
+      <c r="N52" t="s">
+        <v>106</v>
+      </c>
+      <c r="O52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" t="s">
+        <v>76</v>
+      </c>
+      <c r="M53" t="s">
+        <v>86</v>
+      </c>
+      <c r="N53" t="s">
+        <v>106</v>
+      </c>
+      <c r="O53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L54" t="s">
+        <v>53</v>
+      </c>
+      <c r="M54" t="s">
+        <v>84</v>
+      </c>
+      <c r="N54" t="s">
+        <v>56</v>
+      </c>
+      <c r="O54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <f t="shared" ref="A55" si="1">A54+1</f>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" t="s">
+        <v>76</v>
+      </c>
+      <c r="M55" t="s">
+        <v>86</v>
+      </c>
+      <c r="N55" t="s">
+        <v>106</v>
+      </c>
+      <c r="O55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <f t="shared" ref="A56:A105" si="2">A55+1</f>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>74</v>
+      </c>
+      <c r="L56" t="s">
+        <v>53</v>
+      </c>
+      <c r="M56" t="s">
+        <v>84</v>
+      </c>
+      <c r="N56" t="s">
+        <v>56</v>
+      </c>
+      <c r="O56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <f t="shared" ref="A57" si="3">A55+1</f>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" t="s">
+        <v>153</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
+        <v>74</v>
+      </c>
+      <c r="L57" t="s">
+        <v>76</v>
+      </c>
+      <c r="M57" t="s">
+        <v>86</v>
+      </c>
+      <c r="N57" t="s">
+        <v>106</v>
+      </c>
+      <c r="O57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>74</v>
+      </c>
+      <c r="L58" t="s">
+        <v>76</v>
+      </c>
+      <c r="M58" t="s">
+        <v>86</v>
+      </c>
+      <c r="N58" t="s">
+        <v>106</v>
+      </c>
+      <c r="O58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <f>A58+1</f>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
+        <v>74</v>
+      </c>
+      <c r="L59" t="s">
+        <v>76</v>
+      </c>
+      <c r="M59" t="s">
+        <v>86</v>
+      </c>
+      <c r="N59" t="s">
+        <v>106</v>
+      </c>
+      <c r="O59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" t="s">
+        <v>74</v>
+      </c>
+      <c r="L60" t="s">
+        <v>76</v>
+      </c>
+      <c r="M60" t="s">
+        <v>86</v>
+      </c>
+      <c r="N60" t="s">
+        <v>106</v>
+      </c>
+      <c r="O60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" t="s">
+        <v>76</v>
+      </c>
+      <c r="M61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N61" t="s">
+        <v>106</v>
+      </c>
+      <c r="O61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" t="s">
+        <v>74</v>
+      </c>
+      <c r="L62" t="s">
+        <v>53</v>
+      </c>
+      <c r="M62" t="s">
+        <v>84</v>
+      </c>
+      <c r="N62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <f>A61+1</f>
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" t="s">
+        <v>76</v>
+      </c>
+      <c r="M63" t="s">
+        <v>86</v>
+      </c>
+      <c r="N63" t="s">
+        <v>106</v>
+      </c>
+      <c r="O63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" t="s">
+        <v>74</v>
+      </c>
+      <c r="L64" t="s">
+        <v>53</v>
+      </c>
+      <c r="M64" t="s">
+        <v>84</v>
+      </c>
+      <c r="N64" t="s">
+        <v>56</v>
+      </c>
+      <c r="O64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <f>A63+1</f>
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" t="s">
+        <v>76</v>
+      </c>
+      <c r="M65" t="s">
+        <v>86</v>
+      </c>
+      <c r="N65" t="s">
+        <v>106</v>
+      </c>
+      <c r="O65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" t="s">
+        <v>74</v>
+      </c>
+      <c r="L66" t="s">
+        <v>76</v>
+      </c>
+      <c r="M66" t="s">
+        <v>86</v>
+      </c>
+      <c r="N66" t="s">
+        <v>106</v>
+      </c>
+      <c r="O66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G67" t="s">
+        <v>181</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" t="s">
+        <v>74</v>
+      </c>
+      <c r="L67" t="s">
+        <v>76</v>
+      </c>
+      <c r="M67" t="s">
+        <v>86</v>
+      </c>
+      <c r="N67" t="s">
+        <v>106</v>
+      </c>
+      <c r="O67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" t="s">
+        <v>74</v>
+      </c>
+      <c r="L68" t="s">
+        <v>53</v>
+      </c>
+      <c r="M68" t="s">
+        <v>84</v>
+      </c>
+      <c r="N68" t="s">
+        <v>56</v>
+      </c>
+      <c r="O68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <f>A67+1</f>
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" t="s">
+        <v>74</v>
+      </c>
+      <c r="L69" t="s">
+        <v>76</v>
+      </c>
+      <c r="M69" t="s">
+        <v>86</v>
+      </c>
+      <c r="N69" t="s">
+        <v>106</v>
+      </c>
+      <c r="O69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="N50" t="s">
-        <v>143</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G70" t="s">
+        <v>184</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" t="s">
+        <v>74</v>
+      </c>
+      <c r="L70" t="s">
+        <v>76</v>
+      </c>
+      <c r="M70" t="s">
+        <v>86</v>
+      </c>
+      <c r="N70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
+        <v>74</v>
+      </c>
+      <c r="L71" t="s">
+        <v>53</v>
+      </c>
+      <c r="M71" t="s">
+        <v>84</v>
+      </c>
+      <c r="N71" t="s">
+        <v>56</v>
+      </c>
+      <c r="O71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <f>A70+1</f>
+        <v>66</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" t="s">
+        <v>74</v>
+      </c>
+      <c r="L72" t="s">
+        <v>76</v>
+      </c>
+      <c r="M72" t="s">
+        <v>86</v>
+      </c>
+      <c r="N72" t="s">
+        <v>106</v>
+      </c>
+      <c r="O72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" t="s">
+        <v>74</v>
+      </c>
+      <c r="L73" t="s">
+        <v>76</v>
+      </c>
+      <c r="M73" t="s">
+        <v>86</v>
+      </c>
+      <c r="N73" t="s">
+        <v>106</v>
+      </c>
+      <c r="O73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E74" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" t="s">
+        <v>74</v>
+      </c>
+      <c r="L74" t="s">
+        <v>76</v>
+      </c>
+      <c r="M74" t="s">
+        <v>86</v>
+      </c>
+      <c r="N74" t="s">
+        <v>106</v>
+      </c>
+      <c r="O74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" t="s">
+        <v>74</v>
+      </c>
+      <c r="L75" t="s">
+        <v>76</v>
+      </c>
+      <c r="M75" t="s">
+        <v>86</v>
+      </c>
+      <c r="N75" t="s">
+        <v>106</v>
+      </c>
+      <c r="O75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L76" t="s">
+        <v>53</v>
+      </c>
+      <c r="M76" t="s">
+        <v>84</v>
+      </c>
+      <c r="N76" t="s">
+        <v>56</v>
+      </c>
+      <c r="O76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <f>A75+1</f>
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" t="s">
+        <v>74</v>
+      </c>
+      <c r="L77" t="s">
+        <v>76</v>
+      </c>
+      <c r="M77" t="s">
+        <v>86</v>
+      </c>
+      <c r="N77" t="s">
+        <v>106</v>
+      </c>
+      <c r="O77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J78" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" t="s">
+        <v>74</v>
+      </c>
+      <c r="L78" t="s">
+        <v>76</v>
+      </c>
+      <c r="M78" t="s">
+        <v>86</v>
+      </c>
+      <c r="N78" t="s">
+        <v>106</v>
+      </c>
+      <c r="O78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <f>A77+1</f>
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L79" t="s">
+        <v>76</v>
+      </c>
+      <c r="M79" t="s">
+        <v>86</v>
+      </c>
+      <c r="N79" t="s">
+        <v>106</v>
+      </c>
+      <c r="O79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <f>A78+1</f>
+        <v>72</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" t="s">
+        <v>74</v>
+      </c>
+      <c r="L80" t="s">
+        <v>76</v>
+      </c>
+      <c r="M80" t="s">
+        <v>86</v>
+      </c>
+      <c r="N80" t="s">
+        <v>106</v>
+      </c>
+      <c r="O80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="6"/>
+      <c r="H81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" t="s">
+        <v>74</v>
+      </c>
+      <c r="L81" t="s">
+        <v>76</v>
+      </c>
+      <c r="M81" t="s">
+        <v>86</v>
+      </c>
+      <c r="N81" t="s">
+        <v>106</v>
+      </c>
+      <c r="O81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J82" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" t="s">
+        <v>74</v>
+      </c>
+      <c r="L82" t="s">
+        <v>53</v>
+      </c>
+      <c r="M82" t="s">
+        <v>84</v>
+      </c>
+      <c r="N82" t="s">
+        <v>56</v>
+      </c>
+      <c r="O82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <f>A80+1</f>
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>216</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G83" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" t="s">
+        <v>74</v>
+      </c>
+      <c r="L83" t="s">
+        <v>76</v>
+      </c>
+      <c r="M83" t="s">
+        <v>86</v>
+      </c>
+      <c r="N83" t="s">
+        <v>106</v>
+      </c>
+      <c r="O83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <f>A81+1</f>
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E84" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G84" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" t="s">
+        <v>74</v>
+      </c>
+      <c r="L84" t="s">
+        <v>76</v>
+      </c>
+      <c r="M84" t="s">
+        <v>86</v>
+      </c>
+      <c r="N84" t="s">
+        <v>106</v>
+      </c>
+      <c r="O84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E85" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G85" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" t="s">
+        <v>74</v>
+      </c>
+      <c r="L85" t="s">
+        <v>76</v>
+      </c>
+      <c r="M85" t="s">
+        <v>86</v>
+      </c>
+      <c r="N85" t="s">
+        <v>106</v>
+      </c>
+      <c r="O85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>217</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" t="s">
+        <v>74</v>
+      </c>
+      <c r="L86" t="s">
+        <v>53</v>
+      </c>
+      <c r="M86" t="s">
+        <v>84</v>
+      </c>
+      <c r="N86" t="s">
+        <v>56</v>
+      </c>
+      <c r="O86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <f>A85+1</f>
+        <v>76</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>217</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" t="s">
+        <v>74</v>
+      </c>
+      <c r="L87" t="s">
+        <v>76</v>
+      </c>
+      <c r="M87" t="s">
+        <v>86</v>
+      </c>
+      <c r="N87" t="s">
+        <v>106</v>
+      </c>
+      <c r="O87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" t="s">
+        <v>74</v>
+      </c>
+      <c r="L88" t="s">
+        <v>76</v>
+      </c>
+      <c r="M88" t="s">
+        <v>86</v>
+      </c>
+      <c r="N88" t="s">
+        <v>106</v>
+      </c>
+      <c r="O88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>217</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G89" t="s">
+        <v>197</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" t="s">
+        <v>74</v>
+      </c>
+      <c r="L89" t="s">
+        <v>76</v>
+      </c>
+      <c r="M89" t="s">
+        <v>86</v>
+      </c>
+      <c r="N89" t="s">
+        <v>106</v>
+      </c>
+      <c r="O89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G90" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" t="s">
+        <v>74</v>
+      </c>
+      <c r="L90" t="s">
+        <v>76</v>
+      </c>
+      <c r="M90" t="s">
+        <v>86</v>
+      </c>
+      <c r="N90" t="s">
+        <v>106</v>
+      </c>
+      <c r="O90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" t="s">
+        <v>74</v>
+      </c>
+      <c r="L91" t="s">
+        <v>76</v>
+      </c>
+      <c r="M91" t="s">
+        <v>86</v>
+      </c>
+      <c r="N91" t="s">
+        <v>106</v>
+      </c>
+      <c r="O91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G92" t="s">
+        <v>201</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J92" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" t="s">
+        <v>74</v>
+      </c>
+      <c r="L92" t="s">
+        <v>76</v>
+      </c>
+      <c r="M92" t="s">
+        <v>86</v>
+      </c>
+      <c r="N92" t="s">
+        <v>106</v>
+      </c>
+      <c r="O92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J93" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" t="s">
+        <v>74</v>
+      </c>
+      <c r="L93" t="s">
+        <v>53</v>
+      </c>
+      <c r="M93" t="s">
+        <v>84</v>
+      </c>
+      <c r="N93" t="s">
+        <v>56</v>
+      </c>
+      <c r="O93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" t="s">
+        <v>74</v>
+      </c>
+      <c r="L94" t="s">
+        <v>53</v>
+      </c>
+      <c r="M94" t="s">
+        <v>84</v>
+      </c>
+      <c r="N94" t="s">
+        <v>56</v>
+      </c>
+      <c r="O94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <f>A93+1</f>
+        <v>83</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>217</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G95" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J95" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" t="s">
+        <v>74</v>
+      </c>
+      <c r="L95" t="s">
+        <v>76</v>
+      </c>
+      <c r="M95" t="s">
+        <v>86</v>
+      </c>
+      <c r="N95" t="s">
+        <v>106</v>
+      </c>
+      <c r="O95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <f>A95+1</f>
+        <v>84</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E96" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G96" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" t="s">
+        <v>74</v>
+      </c>
+      <c r="L96" t="s">
+        <v>76</v>
+      </c>
+      <c r="M96" t="s">
+        <v>86</v>
+      </c>
+      <c r="N96" t="s">
+        <v>106</v>
+      </c>
+      <c r="O96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>217</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G97" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" t="s">
+        <v>74</v>
+      </c>
+      <c r="L97" t="s">
+        <v>76</v>
+      </c>
+      <c r="M97" t="s">
+        <v>86</v>
+      </c>
+      <c r="N97" t="s">
+        <v>106</v>
+      </c>
+      <c r="O97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>217</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E98" t="s">
+        <v>151</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" t="s">
+        <v>74</v>
+      </c>
+      <c r="L98" t="s">
+        <v>76</v>
+      </c>
+      <c r="M98" t="s">
+        <v>86</v>
+      </c>
+      <c r="N98" t="s">
+        <v>106</v>
+      </c>
+      <c r="O98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J99" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" t="s">
+        <v>74</v>
+      </c>
+      <c r="L99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M99" t="s">
+        <v>86</v>
+      </c>
+      <c r="N99" t="s">
+        <v>106</v>
+      </c>
+      <c r="O99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J100" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" t="s">
+        <v>74</v>
+      </c>
+      <c r="L100" t="s">
+        <v>53</v>
+      </c>
+      <c r="M100" t="s">
+        <v>84</v>
+      </c>
+      <c r="N100" t="s">
+        <v>56</v>
+      </c>
+      <c r="O100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J101" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" t="s">
+        <v>74</v>
+      </c>
+      <c r="L101" t="s">
+        <v>53</v>
+      </c>
+      <c r="M101" t="s">
+        <v>84</v>
+      </c>
+      <c r="N101" t="s">
+        <v>56</v>
+      </c>
+      <c r="O101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <f>A100+1</f>
+        <v>89</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>216</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="H102" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J102" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" t="s">
+        <v>74</v>
+      </c>
+      <c r="L102" t="s">
+        <v>76</v>
+      </c>
+      <c r="M102" t="s">
+        <v>86</v>
+      </c>
+      <c r="N102" t="s">
+        <v>106</v>
+      </c>
+      <c r="O102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>216</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" t="s">
+        <v>39</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G103" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J103" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" t="s">
+        <v>74</v>
+      </c>
+      <c r="L103" t="s">
+        <v>76</v>
+      </c>
+      <c r="M103" t="s">
+        <v>86</v>
+      </c>
+      <c r="N103" t="s">
+        <v>106</v>
+      </c>
+      <c r="O103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>216</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E104" t="s">
+        <v>39</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J104" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" t="s">
+        <v>74</v>
+      </c>
+      <c r="L104" t="s">
+        <v>76</v>
+      </c>
+      <c r="M104" t="s">
+        <v>86</v>
+      </c>
+      <c r="N104" t="s">
+        <v>106</v>
+      </c>
+      <c r="O104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E105" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G105" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J105" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" t="s">
+        <v>74</v>
+      </c>
+      <c r="L105" t="s">
+        <v>76</v>
+      </c>
+      <c r="M105" t="s">
+        <v>86</v>
+      </c>
+      <c r="N105" t="s">
+        <v>106</v>
+      </c>
+      <c r="O105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="3"/>
+      <c r="F106" s="7"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+      <c r="F107" s="7"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="3"/>
+      <c r="F108" s="7"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="3"/>
+      <c r="F109" s="7"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
+      <c r="F110" s="7"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <f>A58+1</f>
+        <v>57</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J111" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" t="s">
+        <v>74</v>
+      </c>
+      <c r="L111" t="s">
+        <v>76</v>
+      </c>
+      <c r="M111" t="s">
+        <v>86</v>
+      </c>
+      <c r="N111" t="s">
+        <v>106</v>
+      </c>
+      <c r="O111" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <f>A58+1</f>
+        <v>57</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="6"/>
+      <c r="H112" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J112" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" t="s">
+        <v>74</v>
+      </c>
+      <c r="L112" t="s">
+        <v>76</v>
+      </c>
+      <c r="M112" t="s">
+        <v>86</v>
+      </c>
+      <c r="N112" t="s">
+        <v>106</v>
+      </c>
+      <c r="O112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <f t="shared" ref="A113:A118" si="4">A112+1</f>
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="6"/>
+      <c r="G113" t="s">
+        <v>162</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J113" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" t="s">
+        <v>74</v>
+      </c>
+      <c r="L113" t="s">
+        <v>76</v>
+      </c>
+      <c r="M113" t="s">
+        <v>86</v>
+      </c>
+      <c r="N113" t="s">
+        <v>106</v>
+      </c>
+      <c r="O113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>214</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" t="s">
+        <v>39</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G114" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J114" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" t="s">
+        <v>74</v>
+      </c>
+      <c r="L114" t="s">
+        <v>76</v>
+      </c>
+      <c r="M114" t="s">
+        <v>86</v>
+      </c>
+      <c r="N114" t="s">
+        <v>106</v>
+      </c>
+      <c r="O114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G115" t="s">
+        <v>29</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J115" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" t="s">
+        <v>74</v>
+      </c>
+      <c r="L115" t="s">
+        <v>76</v>
+      </c>
+      <c r="M115" t="s">
+        <v>86</v>
+      </c>
+      <c r="N115" t="s">
+        <v>106</v>
+      </c>
+      <c r="O115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J116" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" t="s">
+        <v>74</v>
+      </c>
+      <c r="L116" t="s">
+        <v>76</v>
+      </c>
+      <c r="M116" t="s">
+        <v>86</v>
+      </c>
+      <c r="N116" t="s">
+        <v>106</v>
+      </c>
+      <c r="O116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>214</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J117" t="s">
+        <v>17</v>
+      </c>
+      <c r="K117" t="s">
+        <v>74</v>
+      </c>
+      <c r="L117" t="s">
+        <v>76</v>
+      </c>
+      <c r="M117" t="s">
+        <v>86</v>
+      </c>
+      <c r="N117" t="s">
+        <v>106</v>
+      </c>
+      <c r="O117" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>214</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G118" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J118" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" t="s">
+        <v>74</v>
+      </c>
+      <c r="L118" t="s">
+        <v>76</v>
+      </c>
+      <c r="M118" t="s">
+        <v>86</v>
+      </c>
+      <c r="N118" t="s">
+        <v>106</v>
+      </c>
+      <c r="O118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <f t="shared" ref="A119" si="5">A112+1</f>
+        <v>58</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="6"/>
+      <c r="H119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J119" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" t="s">
+        <v>74</v>
+      </c>
+      <c r="L119" t="s">
+        <v>76</v>
+      </c>
+      <c r="M119" t="s">
+        <v>86</v>
+      </c>
+      <c r="N119" t="s">
+        <v>106</v>
+      </c>
+      <c r="O119" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <f t="shared" ref="A120:A125" si="6">A119+1</f>
+        <v>59</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>214</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="6"/>
+      <c r="G120" t="s">
+        <v>164</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J120" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" t="s">
+        <v>74</v>
+      </c>
+      <c r="L120" t="s">
+        <v>76</v>
+      </c>
+      <c r="M120" t="s">
+        <v>86</v>
+      </c>
+      <c r="N120" t="s">
+        <v>106</v>
+      </c>
+      <c r="O120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>214</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E121" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G121" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J121" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" t="s">
+        <v>74</v>
+      </c>
+      <c r="L121" t="s">
+        <v>76</v>
+      </c>
+      <c r="M121" t="s">
+        <v>86</v>
+      </c>
+      <c r="N121" t="s">
+        <v>106</v>
+      </c>
+      <c r="O121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>214</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E122" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J122" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" t="s">
+        <v>74</v>
+      </c>
+      <c r="L122" t="s">
+        <v>76</v>
+      </c>
+      <c r="M122" t="s">
+        <v>86</v>
+      </c>
+      <c r="N122" t="s">
+        <v>106</v>
+      </c>
+      <c r="O122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>214</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E123" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J123" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" t="s">
+        <v>74</v>
+      </c>
+      <c r="L123" t="s">
+        <v>76</v>
+      </c>
+      <c r="M123" t="s">
+        <v>86</v>
+      </c>
+      <c r="N123" t="s">
+        <v>106</v>
+      </c>
+      <c r="O123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>214</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E124" t="s">
+        <v>39</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G124" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J124" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" t="s">
+        <v>74</v>
+      </c>
+      <c r="L124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M124" t="s">
+        <v>86</v>
+      </c>
+      <c r="N124" t="s">
+        <v>106</v>
+      </c>
+      <c r="O124" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>214</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E125" t="s">
+        <v>39</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G125" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J125" t="s">
+        <v>17</v>
+      </c>
+      <c r="K125" t="s">
+        <v>74</v>
+      </c>
+      <c r="L125" t="s">
+        <v>76</v>
+      </c>
+      <c r="M125" t="s">
+        <v>86</v>
+      </c>
+      <c r="N125" t="s">
+        <v>106</v>
+      </c>
+      <c r="O125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <f t="shared" ref="A126" si="7">A119+1</f>
+        <v>59</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>214</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="6"/>
+      <c r="H126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J126" t="s">
+        <v>17</v>
+      </c>
+      <c r="K126" t="s">
+        <v>74</v>
+      </c>
+      <c r="L126" t="s">
+        <v>76</v>
+      </c>
+      <c r="M126" t="s">
+        <v>86</v>
+      </c>
+      <c r="N126" t="s">
+        <v>106</v>
+      </c>
+      <c r="O126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <f t="shared" ref="A127:A133" si="8">A126+1</f>
+        <v>60</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>214</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="6"/>
+      <c r="G127" t="s">
+        <v>167</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J127" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" t="s">
+        <v>74</v>
+      </c>
+      <c r="L127" t="s">
+        <v>76</v>
+      </c>
+      <c r="M127" t="s">
+        <v>86</v>
+      </c>
+      <c r="N127" t="s">
+        <v>106</v>
+      </c>
+      <c r="O127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G128" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J128" t="s">
+        <v>17</v>
+      </c>
+      <c r="K128" t="s">
+        <v>74</v>
+      </c>
+      <c r="L128" t="s">
+        <v>76</v>
+      </c>
+      <c r="M128" t="s">
+        <v>86</v>
+      </c>
+      <c r="N128" t="s">
+        <v>106</v>
+      </c>
+      <c r="O128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>214</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E129" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G129" t="s">
+        <v>29</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J129" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" t="s">
+        <v>74</v>
+      </c>
+      <c r="L129" t="s">
+        <v>76</v>
+      </c>
+      <c r="M129" t="s">
+        <v>86</v>
+      </c>
+      <c r="N129" t="s">
+        <v>106</v>
+      </c>
+      <c r="O129" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>214</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E130" t="s">
+        <v>39</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J130" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" t="s">
+        <v>74</v>
+      </c>
+      <c r="L130" t="s">
+        <v>76</v>
+      </c>
+      <c r="M130" t="s">
+        <v>86</v>
+      </c>
+      <c r="N130" t="s">
+        <v>106</v>
+      </c>
+      <c r="O130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>214</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E131" t="s">
+        <v>39</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G131" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J131" t="s">
+        <v>17</v>
+      </c>
+      <c r="K131" t="s">
+        <v>74</v>
+      </c>
+      <c r="L131" t="s">
+        <v>76</v>
+      </c>
+      <c r="M131" t="s">
+        <v>86</v>
+      </c>
+      <c r="N131" t="s">
+        <v>106</v>
+      </c>
+      <c r="O131" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <f t="shared" si="8"/>
         <v>65</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>214</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E132" t="s">
+        <v>39</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G132" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J132" t="s">
+        <v>17</v>
+      </c>
+      <c r="K132" t="s">
+        <v>74</v>
+      </c>
+      <c r="L132" t="s">
+        <v>76</v>
+      </c>
+      <c r="M132" t="s">
+        <v>86</v>
+      </c>
+      <c r="N132" t="s">
+        <v>106</v>
+      </c>
+      <c r="O132" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>219</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133" t="s">
+        <v>39</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G133" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J133" t="s">
+        <v>17</v>
+      </c>
+      <c r="K133" t="s">
+        <v>74</v>
+      </c>
+      <c r="L133" t="s">
+        <v>76</v>
+      </c>
+      <c r="M133" t="s">
+        <v>86</v>
+      </c>
+      <c r="N133" t="s">
+        <v>106</v>
+      </c>
+      <c r="O133" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134" s="3"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="6"/>
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A135" s="3"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="6"/>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136" s="3"/>
+      <c r="E136" s="1"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <f t="shared" ref="A142:A195" si="9">A141+1</f>
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>219</v>
+      </c>
+      <c r="D142" t="s">
+        <v>149</v>
+      </c>
+      <c r="E142" t="s">
+        <v>39</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G142" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J142" t="s">
+        <v>17</v>
+      </c>
+      <c r="K142" t="s">
+        <v>74</v>
+      </c>
+      <c r="L142" t="s">
+        <v>76</v>
+      </c>
+      <c r="M142" t="s">
+        <v>86</v>
+      </c>
+      <c r="N142" t="s">
+        <v>106</v>
+      </c>
+      <c r="O142" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>219</v>
+      </c>
+      <c r="D143" t="s">
+        <v>149</v>
+      </c>
+      <c r="E143" t="s">
+        <v>39</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G143" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J143" t="s">
+        <v>17</v>
+      </c>
+      <c r="K143" t="s">
+        <v>74</v>
+      </c>
+      <c r="L143" t="s">
+        <v>76</v>
+      </c>
+      <c r="M143" t="s">
+        <v>86</v>
+      </c>
+      <c r="N143" t="s">
+        <v>106</v>
+      </c>
+      <c r="O143" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>219</v>
+      </c>
+      <c r="D144" t="s">
+        <v>149</v>
+      </c>
+      <c r="E144" t="s">
+        <v>39</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J144" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" t="s">
+        <v>74</v>
+      </c>
+      <c r="L144" t="s">
+        <v>76</v>
+      </c>
+      <c r="M144" t="s">
+        <v>86</v>
+      </c>
+      <c r="N144" t="s">
+        <v>106</v>
+      </c>
+      <c r="O144" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>219</v>
+      </c>
+      <c r="D145" t="s">
+        <v>149</v>
+      </c>
+      <c r="E145" t="s">
+        <v>39</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G145" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J145" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" t="s">
+        <v>74</v>
+      </c>
+      <c r="L145" t="s">
+        <v>76</v>
+      </c>
+      <c r="M145" t="s">
+        <v>86</v>
+      </c>
+      <c r="N145" t="s">
+        <v>106</v>
+      </c>
+      <c r="O145" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>219</v>
+      </c>
+      <c r="D146" t="s">
+        <v>149</v>
+      </c>
+      <c r="E146" t="s">
+        <v>39</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J146" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" t="s">
+        <v>74</v>
+      </c>
+      <c r="L146" t="s">
+        <v>76</v>
+      </c>
+      <c r="M146" t="s">
+        <v>86</v>
+      </c>
+      <c r="N146" t="s">
+        <v>106</v>
+      </c>
+      <c r="O146" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>219</v>
+      </c>
+      <c r="D147" t="s">
+        <v>149</v>
+      </c>
+      <c r="E147" t="s">
+        <v>39</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G147" t="s">
+        <v>29</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J147" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" t="s">
+        <v>74</v>
+      </c>
+      <c r="L147" t="s">
+        <v>76</v>
+      </c>
+      <c r="M147" t="s">
+        <v>86</v>
+      </c>
+      <c r="N147" t="s">
+        <v>106</v>
+      </c>
+      <c r="O147" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>219</v>
+      </c>
+      <c r="D148" t="s">
+        <v>149</v>
+      </c>
+      <c r="E148" t="s">
+        <v>39</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G148" t="s">
+        <v>29</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J148" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" t="s">
+        <v>74</v>
+      </c>
+      <c r="L148" t="s">
+        <v>76</v>
+      </c>
+      <c r="M148" t="s">
+        <v>86</v>
+      </c>
+      <c r="N148" t="s">
+        <v>106</v>
+      </c>
+      <c r="O148" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>219</v>
+      </c>
+      <c r="D149" t="s">
+        <v>149</v>
+      </c>
+      <c r="E149" t="s">
+        <v>39</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G149" t="s">
+        <v>29</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J149" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" t="s">
+        <v>74</v>
+      </c>
+      <c r="L149" t="s">
+        <v>76</v>
+      </c>
+      <c r="M149" t="s">
+        <v>86</v>
+      </c>
+      <c r="N149" t="s">
+        <v>106</v>
+      </c>
+      <c r="O149" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>219</v>
+      </c>
+      <c r="D150" t="s">
+        <v>149</v>
+      </c>
+      <c r="E150" t="s">
+        <v>151</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G150" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J150" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" t="s">
+        <v>74</v>
+      </c>
+      <c r="L150" t="s">
+        <v>76</v>
+      </c>
+      <c r="M150" t="s">
+        <v>86</v>
+      </c>
+      <c r="N150" t="s">
+        <v>106</v>
+      </c>
+      <c r="O150" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>219</v>
+      </c>
+      <c r="D151" t="s">
+        <v>149</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G151" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J151" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" t="s">
+        <v>74</v>
+      </c>
+      <c r="L151" t="s">
+        <v>76</v>
+      </c>
+      <c r="M151" t="s">
+        <v>86</v>
+      </c>
+      <c r="N151" t="s">
+        <v>106</v>
+      </c>
+      <c r="O151" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>219</v>
+      </c>
+      <c r="D152" t="s">
+        <v>149</v>
+      </c>
+      <c r="E152" t="s">
+        <v>39</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G152" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J152" t="s">
+        <v>17</v>
+      </c>
+      <c r="K152" t="s">
+        <v>74</v>
+      </c>
+      <c r="L152" t="s">
+        <v>76</v>
+      </c>
+      <c r="M152" t="s">
+        <v>86</v>
+      </c>
+      <c r="N152" t="s">
+        <v>106</v>
+      </c>
+      <c r="O152" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>219</v>
+      </c>
+      <c r="D153" t="s">
+        <v>149</v>
+      </c>
+      <c r="E153" t="s">
+        <v>39</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G153" t="s">
+        <v>29</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J153" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" t="s">
+        <v>74</v>
+      </c>
+      <c r="L153" t="s">
+        <v>76</v>
+      </c>
+      <c r="M153" t="s">
+        <v>86</v>
+      </c>
+      <c r="N153" t="s">
+        <v>106</v>
+      </c>
+      <c r="O153" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>219</v>
+      </c>
+      <c r="D154" t="s">
+        <v>149</v>
+      </c>
+      <c r="E154" t="s">
+        <v>39</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J154" t="s">
+        <v>17</v>
+      </c>
+      <c r="K154" t="s">
+        <v>74</v>
+      </c>
+      <c r="L154" t="s">
+        <v>76</v>
+      </c>
+      <c r="M154" t="s">
+        <v>86</v>
+      </c>
+      <c r="N154" t="s">
+        <v>106</v>
+      </c>
+      <c r="O154" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
+        <v>219</v>
+      </c>
+      <c r="D155" t="s">
+        <v>149</v>
+      </c>
+      <c r="E155" t="s">
+        <v>39</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G155" t="s">
+        <v>29</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J155" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" t="s">
+        <v>74</v>
+      </c>
+      <c r="L155" t="s">
+        <v>76</v>
+      </c>
+      <c r="M155" t="s">
+        <v>86</v>
+      </c>
+      <c r="N155" t="s">
+        <v>106</v>
+      </c>
+      <c r="O155" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>219</v>
+      </c>
+      <c r="D156" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156" t="s">
+        <v>39</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G156" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J156" t="s">
+        <v>17</v>
+      </c>
+      <c r="K156" t="s">
+        <v>74</v>
+      </c>
+      <c r="L156" t="s">
+        <v>76</v>
+      </c>
+      <c r="M156" t="s">
+        <v>86</v>
+      </c>
+      <c r="N156" t="s">
+        <v>106</v>
+      </c>
+      <c r="O156" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>216</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="6"/>
+      <c r="H157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J157" t="s">
+        <v>17</v>
+      </c>
+      <c r="K157" t="s">
+        <v>74</v>
+      </c>
+      <c r="L157" t="s">
+        <v>76</v>
+      </c>
+      <c r="M157" t="s">
+        <v>86</v>
+      </c>
+      <c r="N157" t="s">
+        <v>106</v>
+      </c>
+      <c r="O157" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <f>A156+1</f>
+        <v>16</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>219</v>
+      </c>
+      <c r="D158" t="s">
+        <v>149</v>
+      </c>
+      <c r="E158" t="s">
+        <v>39</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J158" t="s">
+        <v>17</v>
+      </c>
+      <c r="K158" t="s">
+        <v>74</v>
+      </c>
+      <c r="L158" t="s">
+        <v>76</v>
+      </c>
+      <c r="M158" t="s">
+        <v>86</v>
+      </c>
+      <c r="N158" t="s">
+        <v>106</v>
+      </c>
+      <c r="O158" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>219</v>
+      </c>
+      <c r="D159" t="s">
+        <v>149</v>
+      </c>
+      <c r="E159" t="s">
+        <v>39</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G159" t="s">
+        <v>29</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J159" t="s">
+        <v>17</v>
+      </c>
+      <c r="K159" t="s">
+        <v>74</v>
+      </c>
+      <c r="L159" t="s">
+        <v>76</v>
+      </c>
+      <c r="M159" t="s">
+        <v>86</v>
+      </c>
+      <c r="N159" t="s">
+        <v>106</v>
+      </c>
+      <c r="O159" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" t="s">
+        <v>219</v>
+      </c>
+      <c r="D160" t="s">
+        <v>149</v>
+      </c>
+      <c r="E160" t="s">
+        <v>39</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G160" t="s">
+        <v>29</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J160" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" t="s">
+        <v>74</v>
+      </c>
+      <c r="L160" t="s">
+        <v>76</v>
+      </c>
+      <c r="M160" t="s">
+        <v>86</v>
+      </c>
+      <c r="N160" t="s">
+        <v>106</v>
+      </c>
+      <c r="O160" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>219</v>
+      </c>
+      <c r="D161" t="s">
+        <v>149</v>
+      </c>
+      <c r="E161" t="s">
+        <v>39</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G161" t="s">
+        <v>29</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J161" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" t="s">
+        <v>74</v>
+      </c>
+      <c r="L161" t="s">
+        <v>76</v>
+      </c>
+      <c r="M161" t="s">
+        <v>86</v>
+      </c>
+      <c r="N161" t="s">
+        <v>106</v>
+      </c>
+      <c r="O161" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>216</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="6"/>
+      <c r="H162" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J162" t="s">
+        <v>17</v>
+      </c>
+      <c r="K162" t="s">
+        <v>74</v>
+      </c>
+      <c r="L162" t="s">
+        <v>76</v>
+      </c>
+      <c r="M162" t="s">
+        <v>86</v>
+      </c>
+      <c r="N162" t="s">
+        <v>106</v>
+      </c>
+      <c r="O162" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <f>A161+1</f>
+        <v>20</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" t="s">
+        <v>219</v>
+      </c>
+      <c r="D163" t="s">
+        <v>149</v>
+      </c>
+      <c r="E163" t="s">
+        <v>39</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G163" t="s">
+        <v>29</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J163" t="s">
+        <v>17</v>
+      </c>
+      <c r="K163" t="s">
+        <v>74</v>
+      </c>
+      <c r="L163" t="s">
+        <v>76</v>
+      </c>
+      <c r="M163" t="s">
+        <v>86</v>
+      </c>
+      <c r="N163" t="s">
+        <v>106</v>
+      </c>
+      <c r="O163" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>219</v>
+      </c>
+      <c r="D164" t="s">
+        <v>149</v>
+      </c>
+      <c r="E164" t="s">
+        <v>39</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G164" t="s">
+        <v>29</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J164" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" t="s">
+        <v>74</v>
+      </c>
+      <c r="L164" t="s">
+        <v>76</v>
+      </c>
+      <c r="M164" t="s">
+        <v>86</v>
+      </c>
+      <c r="N164" t="s">
+        <v>106</v>
+      </c>
+      <c r="O164" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" t="s">
+        <v>219</v>
+      </c>
+      <c r="D165" t="s">
+        <v>149</v>
+      </c>
+      <c r="E165" t="s">
+        <v>39</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G165" t="s">
+        <v>29</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J165" t="s">
+        <v>17</v>
+      </c>
+      <c r="K165" t="s">
+        <v>74</v>
+      </c>
+      <c r="L165" t="s">
+        <v>76</v>
+      </c>
+      <c r="M165" t="s">
+        <v>86</v>
+      </c>
+      <c r="N165" t="s">
+        <v>106</v>
+      </c>
+      <c r="O165" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" t="s">
+        <v>219</v>
+      </c>
+      <c r="D166" t="s">
+        <v>149</v>
+      </c>
+      <c r="E166" t="s">
+        <v>39</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G166" t="s">
+        <v>29</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J166" t="s">
+        <v>17</v>
+      </c>
+      <c r="K166" t="s">
+        <v>74</v>
+      </c>
+      <c r="L166" t="s">
+        <v>76</v>
+      </c>
+      <c r="M166" t="s">
+        <v>86</v>
+      </c>
+      <c r="N166" t="s">
+        <v>106</v>
+      </c>
+      <c r="O166" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="B167" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" t="s">
+        <v>216</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="6"/>
+      <c r="H167" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J167" t="s">
+        <v>17</v>
+      </c>
+      <c r="K167" t="s">
+        <v>74</v>
+      </c>
+      <c r="L167" t="s">
+        <v>76</v>
+      </c>
+      <c r="M167" t="s">
+        <v>86</v>
+      </c>
+      <c r="N167" t="s">
+        <v>106</v>
+      </c>
+      <c r="O167" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <f>A166+1</f>
+        <v>24</v>
+      </c>
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" t="s">
+        <v>219</v>
+      </c>
+      <c r="D168" t="s">
+        <v>149</v>
+      </c>
+      <c r="E168" t="s">
+        <v>39</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G168" t="s">
+        <v>29</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J168" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" t="s">
+        <v>74</v>
+      </c>
+      <c r="L168" t="s">
+        <v>76</v>
+      </c>
+      <c r="M168" t="s">
+        <v>86</v>
+      </c>
+      <c r="N168" t="s">
+        <v>106</v>
+      </c>
+      <c r="O168" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" t="s">
+        <v>219</v>
+      </c>
+      <c r="D169" t="s">
+        <v>149</v>
+      </c>
+      <c r="E169" t="s">
+        <v>39</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G169" t="s">
+        <v>29</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J169" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" t="s">
+        <v>74</v>
+      </c>
+      <c r="L169" t="s">
+        <v>76</v>
+      </c>
+      <c r="M169" t="s">
+        <v>86</v>
+      </c>
+      <c r="N169" t="s">
+        <v>106</v>
+      </c>
+      <c r="O169" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" t="s">
+        <v>219</v>
+      </c>
+      <c r="D170" t="s">
+        <v>149</v>
+      </c>
+      <c r="E170" t="s">
+        <v>39</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G170" t="s">
+        <v>29</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J170" t="s">
+        <v>17</v>
+      </c>
+      <c r="K170" t="s">
+        <v>74</v>
+      </c>
+      <c r="L170" t="s">
+        <v>76</v>
+      </c>
+      <c r="M170" t="s">
+        <v>86</v>
+      </c>
+      <c r="N170" t="s">
+        <v>106</v>
+      </c>
+      <c r="O170" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" t="s">
+        <v>219</v>
+      </c>
+      <c r="D171" t="s">
+        <v>149</v>
+      </c>
+      <c r="E171" t="s">
+        <v>39</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G171" t="s">
+        <v>29</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J171" t="s">
+        <v>17</v>
+      </c>
+      <c r="K171" t="s">
+        <v>74</v>
+      </c>
+      <c r="L171" t="s">
+        <v>76</v>
+      </c>
+      <c r="M171" t="s">
+        <v>86</v>
+      </c>
+      <c r="N171" t="s">
+        <v>106</v>
+      </c>
+      <c r="O171" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" t="s">
+        <v>219</v>
+      </c>
+      <c r="D172" t="s">
+        <v>149</v>
+      </c>
+      <c r="E172" t="s">
+        <v>39</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G172" t="s">
+        <v>29</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J172" t="s">
+        <v>17</v>
+      </c>
+      <c r="K172" t="s">
+        <v>74</v>
+      </c>
+      <c r="L172" t="s">
+        <v>76</v>
+      </c>
+      <c r="M172" t="s">
+        <v>86</v>
+      </c>
+      <c r="N172" t="s">
+        <v>106</v>
+      </c>
+      <c r="O172" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="B173" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" t="s">
+        <v>219</v>
+      </c>
+      <c r="D173" t="s">
+        <v>149</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G173" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J173" t="s">
+        <v>17</v>
+      </c>
+      <c r="K173" t="s">
+        <v>74</v>
+      </c>
+      <c r="L173" t="s">
+        <v>76</v>
+      </c>
+      <c r="M173" t="s">
+        <v>86</v>
+      </c>
+      <c r="N173" t="s">
+        <v>106</v>
+      </c>
+      <c r="O173" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="B174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" t="s">
+        <v>219</v>
+      </c>
+      <c r="D174" t="s">
+        <v>149</v>
+      </c>
+      <c r="E174" t="s">
+        <v>39</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G174" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J174" t="s">
+        <v>17</v>
+      </c>
+      <c r="K174" t="s">
+        <v>74</v>
+      </c>
+      <c r="L174" t="s">
+        <v>76</v>
+      </c>
+      <c r="M174" t="s">
+        <v>86</v>
+      </c>
+      <c r="N174" t="s">
+        <v>106</v>
+      </c>
+      <c r="O174" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
+        <v>219</v>
+      </c>
+      <c r="D175" t="s">
+        <v>149</v>
+      </c>
+      <c r="E175" t="s">
+        <v>39</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G175" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J175" t="s">
+        <v>17</v>
+      </c>
+      <c r="K175" t="s">
+        <v>74</v>
+      </c>
+      <c r="L175" t="s">
+        <v>76</v>
+      </c>
+      <c r="M175" t="s">
+        <v>86</v>
+      </c>
+      <c r="N175" t="s">
+        <v>106</v>
+      </c>
+      <c r="O175" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="B176" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" t="s">
+        <v>219</v>
+      </c>
+      <c r="D176" t="s">
+        <v>149</v>
+      </c>
+      <c r="E176" t="s">
+        <v>39</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G176" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J176" t="s">
+        <v>17</v>
+      </c>
+      <c r="K176" t="s">
+        <v>74</v>
+      </c>
+      <c r="L176" t="s">
+        <v>76</v>
+      </c>
+      <c r="M176" t="s">
+        <v>86</v>
+      </c>
+      <c r="N176" t="s">
+        <v>106</v>
+      </c>
+      <c r="O176" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="B177" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" t="s">
+        <v>219</v>
+      </c>
+      <c r="D177" t="s">
+        <v>149</v>
+      </c>
+      <c r="E177" t="s">
+        <v>39</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G177" t="s">
+        <v>29</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J177" t="s">
+        <v>17</v>
+      </c>
+      <c r="K177" t="s">
+        <v>74</v>
+      </c>
+      <c r="L177" t="s">
+        <v>76</v>
+      </c>
+      <c r="M177" t="s">
+        <v>86</v>
+      </c>
+      <c r="N177" t="s">
+        <v>106</v>
+      </c>
+      <c r="O177" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" t="s">
+        <v>219</v>
+      </c>
+      <c r="D178" t="s">
+        <v>149</v>
+      </c>
+      <c r="E178" t="s">
+        <v>39</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G178" t="s">
+        <v>237</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J178" t="s">
+        <v>17</v>
+      </c>
+      <c r="K178" t="s">
+        <v>74</v>
+      </c>
+      <c r="L178" t="s">
+        <v>76</v>
+      </c>
+      <c r="M178" t="s">
+        <v>86</v>
+      </c>
+      <c r="N178" t="s">
+        <v>106</v>
+      </c>
+      <c r="O178" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="B179" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" t="s">
+        <v>216</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J179" t="s">
+        <v>17</v>
+      </c>
+      <c r="K179" t="s">
+        <v>74</v>
+      </c>
+      <c r="L179" t="s">
+        <v>53</v>
+      </c>
+      <c r="M179" t="s">
+        <v>84</v>
+      </c>
+      <c r="N179" t="s">
+        <v>56</v>
+      </c>
+      <c r="O179" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" t="s">
+        <v>219</v>
+      </c>
+      <c r="D180" t="s">
+        <v>149</v>
+      </c>
+      <c r="E180" t="s">
+        <v>39</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G180" t="s">
+        <v>29</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J180" t="s">
+        <v>17</v>
+      </c>
+      <c r="K180" t="s">
+        <v>74</v>
+      </c>
+      <c r="L180" t="s">
+        <v>76</v>
+      </c>
+      <c r="M180" t="s">
+        <v>86</v>
+      </c>
+      <c r="N180" t="s">
+        <v>106</v>
+      </c>
+      <c r="O180" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="B181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" t="s">
+        <v>219</v>
+      </c>
+      <c r="D181" t="s">
+        <v>149</v>
+      </c>
+      <c r="E181" t="s">
+        <v>39</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G181" t="s">
+        <v>239</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J181" t="s">
+        <v>17</v>
+      </c>
+      <c r="K181" t="s">
+        <v>74</v>
+      </c>
+      <c r="L181" t="s">
+        <v>76</v>
+      </c>
+      <c r="M181" t="s">
+        <v>86</v>
+      </c>
+      <c r="N181" t="s">
+        <v>106</v>
+      </c>
+      <c r="O181" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" t="s">
+        <v>216</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J182" t="s">
+        <v>17</v>
+      </c>
+      <c r="K182" t="s">
+        <v>74</v>
+      </c>
+      <c r="L182" t="s">
+        <v>53</v>
+      </c>
+      <c r="M182" t="s">
+        <v>84</v>
+      </c>
+      <c r="N182" t="s">
+        <v>56</v>
+      </c>
+      <c r="O182" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="B183" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" t="s">
+        <v>219</v>
+      </c>
+      <c r="D183" t="s">
+        <v>149</v>
+      </c>
+      <c r="E183" t="s">
+        <v>39</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G183" t="s">
+        <v>29</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J183" t="s">
+        <v>17</v>
+      </c>
+      <c r="K183" t="s">
+        <v>74</v>
+      </c>
+      <c r="L183" t="s">
+        <v>76</v>
+      </c>
+      <c r="M183" t="s">
+        <v>86</v>
+      </c>
+      <c r="N183" t="s">
+        <v>106</v>
+      </c>
+      <c r="O183" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="B184" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" t="s">
+        <v>219</v>
+      </c>
+      <c r="D184" t="s">
+        <v>149</v>
+      </c>
+      <c r="E184" t="s">
+        <v>39</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G184" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J184" t="s">
+        <v>17</v>
+      </c>
+      <c r="K184" t="s">
+        <v>74</v>
+      </c>
+      <c r="L184" t="s">
+        <v>76</v>
+      </c>
+      <c r="M184" t="s">
+        <v>86</v>
+      </c>
+      <c r="N184" t="s">
+        <v>106</v>
+      </c>
+      <c r="O184" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" t="s">
+        <v>219</v>
+      </c>
+      <c r="D185" t="s">
+        <v>149</v>
+      </c>
+      <c r="E185" t="s">
+        <v>39</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G185" t="s">
+        <v>29</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J185" t="s">
+        <v>17</v>
+      </c>
+      <c r="K185" t="s">
+        <v>74</v>
+      </c>
+      <c r="L185" t="s">
+        <v>76</v>
+      </c>
+      <c r="M185" t="s">
+        <v>86</v>
+      </c>
+      <c r="N185" t="s">
+        <v>106</v>
+      </c>
+      <c r="O185" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="B186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" t="s">
+        <v>219</v>
+      </c>
+      <c r="D186" t="s">
+        <v>149</v>
+      </c>
+      <c r="E186" t="s">
+        <v>39</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G186" t="s">
+        <v>29</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J186" t="s">
+        <v>17</v>
+      </c>
+      <c r="K186" t="s">
+        <v>74</v>
+      </c>
+      <c r="L186" t="s">
+        <v>76</v>
+      </c>
+      <c r="M186" t="s">
+        <v>86</v>
+      </c>
+      <c r="N186" t="s">
+        <v>106</v>
+      </c>
+      <c r="O186" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" t="s">
+        <v>216</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J187" t="s">
+        <v>17</v>
+      </c>
+      <c r="K187" t="s">
+        <v>74</v>
+      </c>
+      <c r="L187" t="s">
+        <v>53</v>
+      </c>
+      <c r="M187" t="s">
+        <v>84</v>
+      </c>
+      <c r="N187" t="s">
+        <v>56</v>
+      </c>
+      <c r="O187" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" t="s">
+        <v>219</v>
+      </c>
+      <c r="D188" t="s">
+        <v>149</v>
+      </c>
+      <c r="E188" t="s">
+        <v>39</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G188" t="s">
+        <v>29</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J188" t="s">
+        <v>17</v>
+      </c>
+      <c r="K188" t="s">
+        <v>74</v>
+      </c>
+      <c r="L188" t="s">
+        <v>76</v>
+      </c>
+      <c r="M188" t="s">
+        <v>86</v>
+      </c>
+      <c r="N188" t="s">
+        <v>106</v>
+      </c>
+      <c r="O188" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" t="s">
+        <v>219</v>
+      </c>
+      <c r="D189" t="s">
+        <v>149</v>
+      </c>
+      <c r="E189" t="s">
+        <v>39</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G189" t="s">
+        <v>29</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J189" t="s">
+        <v>17</v>
+      </c>
+      <c r="K189" t="s">
+        <v>74</v>
+      </c>
+      <c r="L189" t="s">
+        <v>76</v>
+      </c>
+      <c r="M189" t="s">
+        <v>86</v>
+      </c>
+      <c r="N189" t="s">
+        <v>106</v>
+      </c>
+      <c r="O189" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="B190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" t="s">
+        <v>219</v>
+      </c>
+      <c r="D190" t="s">
+        <v>149</v>
+      </c>
+      <c r="E190" t="s">
+        <v>39</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G190" t="s">
+        <v>29</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J190" t="s">
+        <v>17</v>
+      </c>
+      <c r="K190" t="s">
+        <v>74</v>
+      </c>
+      <c r="L190" t="s">
+        <v>76</v>
+      </c>
+      <c r="M190" t="s">
+        <v>86</v>
+      </c>
+      <c r="N190" t="s">
+        <v>106</v>
+      </c>
+      <c r="O190" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="B191" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" t="s">
+        <v>219</v>
+      </c>
+      <c r="D191" t="s">
+        <v>149</v>
+      </c>
+      <c r="E191" t="s">
+        <v>39</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J191" t="s">
+        <v>17</v>
+      </c>
+      <c r="K191" t="s">
+        <v>74</v>
+      </c>
+      <c r="L191" t="s">
+        <v>76</v>
+      </c>
+      <c r="M191" t="s">
+        <v>86</v>
+      </c>
+      <c r="N191" t="s">
+        <v>106</v>
+      </c>
+      <c r="O191" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" t="s">
+        <v>216</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J192" t="s">
+        <v>17</v>
+      </c>
+      <c r="K192" t="s">
+        <v>74</v>
+      </c>
+      <c r="L192" t="s">
+        <v>53</v>
+      </c>
+      <c r="M192" t="s">
+        <v>84</v>
+      </c>
+      <c r="N192" t="s">
+        <v>56</v>
+      </c>
+      <c r="O192" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" t="s">
+        <v>219</v>
+      </c>
+      <c r="D193" t="s">
+        <v>149</v>
+      </c>
+      <c r="E193" t="s">
+        <v>39</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G193" t="s">
+        <v>29</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J193" t="s">
+        <v>17</v>
+      </c>
+      <c r="K193" t="s">
+        <v>74</v>
+      </c>
+      <c r="L193" t="s">
+        <v>76</v>
+      </c>
+      <c r="M193" t="s">
+        <v>86</v>
+      </c>
+      <c r="N193" t="s">
+        <v>106</v>
+      </c>
+      <c r="O193" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" t="s">
+        <v>219</v>
+      </c>
+      <c r="D194" t="s">
+        <v>149</v>
+      </c>
+      <c r="E194" t="s">
+        <v>39</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G194" t="s">
+        <v>30</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J194" t="s">
+        <v>17</v>
+      </c>
+      <c r="K194" t="s">
+        <v>74</v>
+      </c>
+      <c r="L194" t="s">
+        <v>76</v>
+      </c>
+      <c r="M194" t="s">
+        <v>86</v>
+      </c>
+      <c r="N194" t="s">
+        <v>106</v>
+      </c>
+      <c r="O194" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" t="s">
+        <v>219</v>
+      </c>
+      <c r="D195" t="s">
+        <v>149</v>
+      </c>
+      <c r="E195" t="s">
+        <v>39</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G195" t="s">
+        <v>29</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J195" t="s">
+        <v>17</v>
+      </c>
+      <c r="K195" t="s">
+        <v>74</v>
+      </c>
+      <c r="L195" t="s">
+        <v>76</v>
+      </c>
+      <c r="M195" t="s">
+        <v>86</v>
+      </c>
+      <c r="N195" t="s">
+        <v>106</v>
+      </c>
+      <c r="O195" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3154,25 +9089,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.109375" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3201,16 +9147,49 @@
         <v>38</v>
       </c>
       <c r="J1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" t="s">
         <v>181</v>
       </c>
-      <c r="K1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="R1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="S1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V1" t="s">
+        <v>237</v>
+      </c>
+      <c r="W1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3227,33 +9206,66 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="S2" t="s">
+        <v>193</v>
+      </c>
+      <c r="T2" t="s">
+        <v>198</v>
+      </c>
+      <c r="U2">
+        <v>38523563809</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -3277,13 +9289,13 @@
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/FOS3.xlsx
+++ b/DataSheet/FOS3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C1E466-4C18-4EF4-8C69-4D50AFB3473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038CACC3-C319-4777-8E94-95BDC0BB716B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="251">
   <si>
     <t>Si_No</t>
   </si>
@@ -674,9 +674,6 @@
     <t>(//android.view.View[@content-desc="Banking Details"])[1]</t>
   </si>
   <si>
-    <t>ScrollUsingCoordinate(500,1920,480,1273)</t>
-  </si>
-  <si>
     <t>//android.view.View[@content-desc="IFSC code"]/android.widget.EditText</t>
   </si>
   <si>
@@ -719,12 +716,6 @@
     <t>//android.view.View[@content-desc="Non PSL"]</t>
   </si>
   <si>
-    <t>ScrollUsingCoordinate(470,1897,480,1400)</t>
-  </si>
-  <si>
-    <t>//android.view.View[contains(@content-desc,"Sanction")]</t>
-  </si>
-  <si>
     <t>ScrollUsingCoordinate(453,2170,510,1107)</t>
   </si>
   <si>
@@ -752,9 +743,6 @@
     <t>ClickOnSearchApplication</t>
   </si>
   <si>
-    <t>MF24120300000645</t>
-  </si>
-  <si>
     <t>//android.widget.Button[@content-desc="Generate PDF"]</t>
   </si>
   <si>
@@ -776,24 +764,12 @@
     <t>//android.widget.Button[@content-desc="crossButton"]</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>CoordinateClick</t>
-  </si>
-  <si>
     <t>(//android.widget.Button[@content-desc="Add New"])[1]</t>
   </si>
   <si>
     <t>//android.widget.Button[@content-desc="Add New"]</t>
   </si>
   <si>
-    <t>Banking details</t>
-  </si>
-  <si>
-    <t>download button</t>
-  </si>
-  <si>
     <t>//android.view.View[contains(@content-desc,'Select Mode for ACH Mandate')]/android.widget.RadioButton[2]</t>
   </si>
   <si>
@@ -813,6 +789,57 @@
   </si>
   <si>
     <t>//android.view.View[contains(@content-desc,'Disbursement Type')]</t>
+  </si>
+  <si>
+    <t>MF24120300000616</t>
+  </si>
+  <si>
+    <t>DOBProof</t>
+  </si>
+  <si>
+    <t>DOB Proof</t>
+  </si>
+  <si>
+    <t>ProformaInvoice</t>
+  </si>
+  <si>
+    <t>Proforma Invoice</t>
+  </si>
+  <si>
+    <t>PhysicalACHMandate</t>
+  </si>
+  <si>
+    <t>Physical ACH Mandate</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"DO Issuance")]</t>
+  </si>
+  <si>
+    <t>UntilScrollElementView</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,'Account Number')]/android.view.View/android.widget.RadioButton</t>
+  </si>
+  <si>
+    <t>WAIT(20000)</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Download all documents"]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Document Downloaded Successfully"]</t>
+  </si>
+  <si>
+    <t>WAIT(1000)</t>
+  </si>
+  <si>
+    <t>DODocumentUpload</t>
+  </si>
+  <si>
+    <t>UntilScrollElementView1</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Retry"]</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
-  <dimension ref="A1:O195"/>
+  <dimension ref="A1:O210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="74" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3589,14 +3616,14 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <f t="shared" ref="A56:A105" si="2">A55+1</f>
+        <f t="shared" ref="A56:A91" si="2">A55+1</f>
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
@@ -3642,7 +3669,7 @@
         <v>153</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
@@ -3675,13 +3702,13 @@
         <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
         <v>39</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -3710,7 +3737,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <f>A58+1</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -3719,7 +3746,7 @@
       <c r="C59" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" t="s">
         <v>149</v>
       </c>
       <c r="E59" t="s">
@@ -3764,8 +3791,8 @@
       <c r="C60" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>149</v>
+      <c r="D60" t="s">
+        <v>16</v>
       </c>
       <c r="E60" t="s">
         <v>39</v>
@@ -3807,10 +3834,10 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
       </c>
       <c r="E61" t="s">
         <v>39</v>
@@ -3852,10 +3879,10 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>33</v>
@@ -3881,21 +3908,21 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <f>A61+1</f>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
       </c>
       <c r="F63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J63" t="s">
         <v>17</v>
@@ -3919,16 +3946,16 @@
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>33</v>
@@ -3954,21 +3981,23 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <f>A63+1</f>
-        <v>61</v>
+        <f t="shared" si="2"/>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="H65" s="1" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
@@ -3992,16 +4021,16 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
       </c>
       <c r="E66" t="s">
         <v>39</v>
@@ -4037,16 +4066,16 @@
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
       </c>
       <c r="E67" t="s">
         <v>39</v>
@@ -4082,16 +4111,16 @@
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>215</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>154</v>
@@ -4117,17 +4146,17 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <f>A67+1</f>
-        <v>64</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
       </c>
       <c r="E69" t="s">
         <v>39</v>
@@ -4163,16 +4192,16 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
       </c>
       <c r="E70" t="s">
         <v>39</v>
@@ -4208,16 +4237,16 @@
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>154</v>
@@ -4243,17 +4272,17 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <f>A70+1</f>
-        <v>66</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
       </c>
       <c r="E72" t="s">
         <v>39</v>
@@ -4289,16 +4318,16 @@
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
       </c>
       <c r="E73" t="s">
         <v>39</v>
@@ -4334,16 +4363,16 @@
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
       </c>
       <c r="E74" t="s">
         <v>39</v>
@@ -4379,16 +4408,16 @@
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>215</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
       </c>
       <c r="E75" t="s">
         <v>39</v>
@@ -4424,16 +4453,16 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>149</v>
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>33</v>
@@ -4459,17 +4488,17 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <f>A75+1</f>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>149</v>
+        <v>213</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
       </c>
       <c r="F77" s="1"/>
       <c r="H77" s="1" t="s">
@@ -4497,16 +4526,16 @@
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>149</v>
+        <v>213</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
       </c>
       <c r="E78" t="s">
         <v>39</v>
@@ -4541,17 +4570,17 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <f>A77+1</f>
-        <v>71</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>149</v>
+        <v>213</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
       </c>
       <c r="F79" s="1"/>
       <c r="H79" s="1" t="s">
@@ -4578,17 +4607,17 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <f>A78+1</f>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>149</v>
+        <v>213</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
       </c>
       <c r="E80" t="s">
         <v>39</v>
@@ -4624,16 +4653,16 @@
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>216</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>149</v>
+        <v>213</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="6"/>
@@ -4662,19 +4691,19 @@
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>149</v>
+        <v>213</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J82" t="s">
         <v>17</v>
@@ -4697,23 +4726,23 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <f>A80+1</f>
-        <v>73</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>149</v>
+        <v>213</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
       </c>
       <c r="E83" t="s">
         <v>39</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -4742,17 +4771,17 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <f>A81+1</f>
-        <v>74</v>
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>149</v>
+        <v>213</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>39</v>
@@ -4788,16 +4817,16 @@
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
       </c>
       <c r="E85" t="s">
         <v>39</v>
@@ -4833,16 +4862,16 @@
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>217</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>33</v>
@@ -4868,21 +4897,21 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <f>A85+1</f>
-        <v>76</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>217</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F87" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="6"/>
       <c r="H87" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J87" t="s">
         <v>17</v>
@@ -4906,22 +4935,22 @@
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
       </c>
       <c r="E88" t="s">
         <v>39</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G88" t="s">
         <v>29</v>
@@ -4951,25 +4980,25 @@
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>217</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
       </c>
       <c r="E89" t="s">
         <v>39</v>
       </c>
       <c r="F89" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G89" t="s">
         <v>196</v>
-      </c>
-      <c r="G89" t="s">
-        <v>197</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>152</v>
@@ -4996,22 +5025,22 @@
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
       </c>
       <c r="E90" t="s">
         <v>39</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -5041,28 +5070,22 @@
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E91" t="s">
-        <v>39</v>
+        <v>214</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G91" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="J91" t="s">
         <v>17</v>
@@ -5085,29 +5108,29 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <f t="shared" si="2"/>
-        <v>81</v>
+        <f>A90+1</f>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>217</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
       </c>
       <c r="E92" t="s">
         <v>39</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G92" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="J92" t="s">
         <v>17</v>
@@ -5130,20 +5153,29 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <f t="shared" si="2"/>
-        <v>82</v>
+        <f t="shared" ref="A93:A108" si="4">A92+1</f>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>217</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G93" t="s">
+        <v>200</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J93" t="s">
         <v>17</v>
@@ -5152,34 +5184,34 @@
         <v>74</v>
       </c>
       <c r="L93" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="M93" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N93" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="O93" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <f t="shared" si="2"/>
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="J94" t="s">
         <v>17</v>
@@ -5202,29 +5234,20 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <f>A93+1</f>
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>217</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E95" t="s">
-        <v>39</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G95" t="s">
-        <v>29</v>
+        <v>214</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="J95" t="s">
         <v>17</v>
@@ -5233,37 +5256,37 @@
         <v>74</v>
       </c>
       <c r="L95" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M95" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N95" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="O95" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <f>A95+1</f>
-        <v>84</v>
+        <f>A94+1</f>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
       </c>
       <c r="E96" t="s">
         <v>39</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -5292,23 +5315,23 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <f t="shared" si="2"/>
-        <v>85</v>
+        <f>A96+1</f>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>217</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
       </c>
       <c r="E97" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -5337,23 +5360,23 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <f t="shared" si="2"/>
-        <v>86</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -5382,23 +5405,23 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <f t="shared" si="2"/>
-        <v>87</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>217</v>
-      </c>
-      <c r="D99" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>149</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="G99" t="s">
         <v>29</v>
@@ -5427,20 +5450,29 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <f t="shared" si="2"/>
-        <v>88</v>
+        <f t="shared" si="4"/>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E100" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G100" t="s">
+        <v>29</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="J100" t="s">
         <v>17</v>
@@ -5449,34 +5481,43 @@
         <v>74</v>
       </c>
       <c r="L100" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="M100" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N100" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="O100" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <f t="shared" si="2"/>
-        <v>89</v>
+        <f t="shared" si="4"/>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G101" t="s">
+        <v>29</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J101" t="s">
         <v>17</v>
@@ -5485,35 +5526,43 @@
         <v>74</v>
       </c>
       <c r="L101" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="M101" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N101" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="O101" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <f>A100+1</f>
-        <v>89</v>
+        <f t="shared" si="4"/>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F102" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" t="s">
+        <v>39</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G102" t="s">
+        <v>29</v>
+      </c>
       <c r="H102" s="1" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="J102" t="s">
         <v>17</v>
@@ -5536,29 +5585,20 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f>A100+1</f>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>216</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E103" t="s">
-        <v>39</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G103" t="s">
-        <v>29</v>
+        <v>213</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
@@ -5567,43 +5607,34 @@
         <v>74</v>
       </c>
       <c r="L103" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M103" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N103" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="O103" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <f t="shared" si="2"/>
-        <v>91</v>
+        <f t="shared" si="4"/>
+        <v>98</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>216</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E104" t="s">
-        <v>39</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G104" t="s">
-        <v>29</v>
+        <v>213</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
@@ -5612,276 +5643,238 @@
         <v>74</v>
       </c>
       <c r="L104" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M104" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N104" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="O104" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <f t="shared" si="2"/>
-        <v>92</v>
+        <f>A103+1</f>
+        <v>98</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E105" t="s">
-        <v>39</v>
-      </c>
-      <c r="F105" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="H105" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J105" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" t="s">
+        <v>74</v>
+      </c>
+      <c r="L105" t="s">
+        <v>76</v>
+      </c>
+      <c r="M105" t="s">
+        <v>86</v>
+      </c>
+      <c r="N105" t="s">
+        <v>106</v>
+      </c>
+      <c r="O105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G106" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J106" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" t="s">
+        <v>74</v>
+      </c>
+      <c r="L106" t="s">
+        <v>76</v>
+      </c>
+      <c r="M106" t="s">
+        <v>86</v>
+      </c>
+      <c r="N106" t="s">
+        <v>106</v>
+      </c>
+      <c r="O106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" t="s">
+        <v>39</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J107" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" t="s">
+        <v>74</v>
+      </c>
+      <c r="L107" t="s">
+        <v>76</v>
+      </c>
+      <c r="M107" t="s">
+        <v>86</v>
+      </c>
+      <c r="N107" t="s">
+        <v>106</v>
+      </c>
+      <c r="O107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G105" t="s">
-        <v>29</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J105" t="s">
-        <v>17</v>
-      </c>
-      <c r="K105" t="s">
-        <v>74</v>
-      </c>
-      <c r="L105" t="s">
-        <v>76</v>
-      </c>
-      <c r="M105" t="s">
-        <v>86</v>
-      </c>
-      <c r="N105" t="s">
-        <v>106</v>
-      </c>
-      <c r="O105" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A106" s="3"/>
-      <c r="F106" s="7"/>
-      <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
-      <c r="F107" s="7"/>
-      <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="3"/>
-      <c r="F108" s="7"/>
-      <c r="H108" s="1"/>
+      <c r="G108" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J108" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" t="s">
+        <v>74</v>
+      </c>
+      <c r="L108" t="s">
+        <v>76</v>
+      </c>
+      <c r="M108" t="s">
+        <v>86</v>
+      </c>
+      <c r="N108" t="s">
+        <v>106</v>
+      </c>
+      <c r="O108" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
-      <c r="F109" s="7"/>
+      <c r="F109" s="6"/>
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
-      <c r="F110" s="7"/>
+      <c r="F110" s="6"/>
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
-        <f>A58+1</f>
-        <v>57</v>
-      </c>
-      <c r="B111" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" t="s">
-        <v>214</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" t="s">
-        <v>39</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G111" t="s">
-        <v>29</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J111" t="s">
-        <v>17</v>
-      </c>
-      <c r="K111" t="s">
-        <v>74</v>
-      </c>
-      <c r="L111" t="s">
-        <v>76</v>
-      </c>
-      <c r="M111" t="s">
-        <v>86</v>
-      </c>
-      <c r="N111" t="s">
-        <v>106</v>
-      </c>
-      <c r="O111" t="s">
-        <v>126</v>
-      </c>
+      <c r="A111" s="3"/>
+      <c r="F111" s="6"/>
+      <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
-        <f>A58+1</f>
-        <v>57</v>
-      </c>
-      <c r="B112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" t="s">
-        <v>214</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E112" s="1"/>
+      <c r="A112" s="3"/>
       <c r="F112" s="6"/>
-      <c r="H112" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J112" t="s">
-        <v>17</v>
-      </c>
-      <c r="K112" t="s">
-        <v>74</v>
-      </c>
-      <c r="L112" t="s">
-        <v>76</v>
-      </c>
-      <c r="M112" t="s">
-        <v>86</v>
-      </c>
-      <c r="N112" t="s">
-        <v>106</v>
-      </c>
-      <c r="O112" t="s">
-        <v>126</v>
-      </c>
+      <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
-        <f t="shared" ref="A113:A118" si="4">A112+1</f>
-        <v>58</v>
-      </c>
-      <c r="B113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" t="s">
-        <v>214</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E113" s="1"/>
+      <c r="A113" s="3"/>
       <c r="F113" s="6"/>
-      <c r="G113" t="s">
-        <v>162</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J113" t="s">
-        <v>17</v>
-      </c>
-      <c r="K113" t="s">
-        <v>74</v>
-      </c>
-      <c r="L113" t="s">
-        <v>76</v>
-      </c>
-      <c r="M113" t="s">
-        <v>86</v>
-      </c>
-      <c r="N113" t="s">
-        <v>106</v>
-      </c>
-      <c r="O113" t="s">
-        <v>126</v>
-      </c>
+      <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
-        <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
-      <c r="B114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" t="s">
-        <v>214</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E114" t="s">
-        <v>39</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G114" t="s">
-        <v>29</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J114" t="s">
-        <v>17</v>
-      </c>
-      <c r="K114" t="s">
-        <v>74</v>
-      </c>
-      <c r="L114" t="s">
-        <v>76</v>
-      </c>
-      <c r="M114" t="s">
-        <v>86</v>
-      </c>
-      <c r="N114" t="s">
-        <v>106</v>
-      </c>
-      <c r="O114" t="s">
-        <v>126</v>
-      </c>
+      <c r="A114" s="3"/>
+      <c r="F114" s="6"/>
+      <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>214</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>149</v>
+        <v>211</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
       </c>
       <c r="E115" t="s">
         <v>39</v>
       </c>
-      <c r="F115" s="6" t="s">
-        <v>169</v>
+      <c r="F115" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="G115" t="s">
         <v>29</v>
@@ -5910,29 +5903,20 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <f t="shared" si="4"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E116" t="s">
-        <v>39</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="7"/>
       <c r="H116" s="1" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="J116" t="s">
         <v>17</v>
@@ -5955,29 +5939,23 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <f t="shared" si="4"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E117" t="s">
-        <v>39</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="7"/>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="J117" t="s">
         <v>17</v>
@@ -6000,23 +5978,22 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <f t="shared" si="4"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>214</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>149</v>
+        <v>211</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
       </c>
       <c r="E118" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="6" t="s">
-        <v>172</v>
+      <c r="F118" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -6045,22 +6022,28 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <f t="shared" ref="A119" si="5">A112+1</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G119" t="s">
+        <v>29</v>
+      </c>
       <c r="H119" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J119" t="s">
         <v>17</v>
@@ -6083,25 +6066,28 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <f t="shared" ref="A120:A125" si="6">A119+1</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>214</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="G120" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="J120" t="s">
         <v>17</v>
@@ -6124,23 +6110,22 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <f t="shared" si="6"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E121" t="s">
+        <v>211</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G121" t="s">
         <v>29</v>
@@ -6169,23 +6154,22 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <f t="shared" si="6"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>214</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E122" t="s">
+        <v>211</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -6214,29 +6198,20 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
-        <f t="shared" si="6"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>214</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E123" t="s">
-        <v>39</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G123" t="s">
-        <v>29</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="6"/>
       <c r="H123" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J123" t="s">
         <v>17</v>
@@ -6259,29 +6234,23 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <f t="shared" si="6"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>214</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E124" t="s">
-        <v>39</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="6"/>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
@@ -6304,23 +6273,22 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <f t="shared" si="6"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>214</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>149</v>
+        <v>211</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
       </c>
       <c r="E125" t="s">
         <v>39</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G125" t="s">
         <v>29</v>
@@ -6349,22 +6317,28 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <f t="shared" ref="A126" si="7">A119+1</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" t="s">
+        <v>39</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G126" t="s">
+        <v>29</v>
+      </c>
       <c r="H126" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J126" t="s">
         <v>17</v>
@@ -6387,25 +6361,28 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <f t="shared" ref="A127:A133" si="8">A126+1</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>214</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="G127" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="J127" t="s">
         <v>17</v>
@@ -6428,23 +6405,22 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <f t="shared" si="8"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>214</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E128" t="s">
+        <v>211</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -6473,23 +6449,22 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
-        <f t="shared" si="8"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>214</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E129" t="s">
+        <v>211</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -6518,29 +6493,20 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
-        <f t="shared" si="8"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>214</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E130" t="s">
-        <v>39</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G130" t="s">
-        <v>29</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" s="6"/>
       <c r="H130" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J130" t="s">
         <v>17</v>
@@ -6563,29 +6529,23 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <f t="shared" si="8"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>214</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" t="s">
-        <v>39</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" s="6"/>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="J131" t="s">
         <v>17</v>
@@ -6608,23 +6568,22 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <f t="shared" si="8"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>214</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>149</v>
+        <v>211</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
       </c>
       <c r="E132" t="s">
         <v>39</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G132" t="s">
         <v>29</v>
@@ -6653,257 +6612,252 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>211</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" t="s">
+        <v>39</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G133" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J133" t="s">
+        <v>17</v>
+      </c>
+      <c r="K133" t="s">
+        <v>74</v>
+      </c>
+      <c r="L133" t="s">
+        <v>76</v>
+      </c>
+      <c r="M133" t="s">
+        <v>86</v>
+      </c>
+      <c r="N133" t="s">
+        <v>106</v>
+      </c>
+      <c r="O133" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>63</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>211</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" t="s">
+        <v>39</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G134" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J134" t="s">
+        <v>17</v>
+      </c>
+      <c r="K134" t="s">
+        <v>74</v>
+      </c>
+      <c r="L134" t="s">
+        <v>76</v>
+      </c>
+      <c r="M134" t="s">
+        <v>86</v>
+      </c>
+      <c r="N134" t="s">
+        <v>106</v>
+      </c>
+      <c r="O134" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>64</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>211</v>
+      </c>
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G135" t="s">
+        <v>29</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J135" t="s">
+        <v>17</v>
+      </c>
+      <c r="K135" t="s">
+        <v>74</v>
+      </c>
+      <c r="L135" t="s">
+        <v>76</v>
+      </c>
+      <c r="M135" t="s">
+        <v>86</v>
+      </c>
+      <c r="N135" t="s">
+        <v>106</v>
+      </c>
+      <c r="O135" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>65</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J136" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" t="s">
+        <v>74</v>
+      </c>
+      <c r="L136" t="s">
+        <v>76</v>
+      </c>
+      <c r="M136" t="s">
+        <v>86</v>
+      </c>
+      <c r="N136" t="s">
+        <v>106</v>
+      </c>
+      <c r="O136" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
         <v>66</v>
       </c>
-      <c r="B133" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" t="s">
-        <v>219</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E133" t="s">
-        <v>39</v>
-      </c>
-      <c r="F133" s="7" t="s">
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" t="s">
+        <v>216</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" t="s">
+        <v>39</v>
+      </c>
+      <c r="F137" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G133" t="s">
-        <v>29</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J133" t="s">
-        <v>17</v>
-      </c>
-      <c r="K133" t="s">
-        <v>74</v>
-      </c>
-      <c r="L133" t="s">
-        <v>76</v>
-      </c>
-      <c r="M133" t="s">
-        <v>86</v>
-      </c>
-      <c r="N133" t="s">
-        <v>106</v>
-      </c>
-      <c r="O133" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A134" s="3"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="6"/>
-      <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A135" s="3"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="6"/>
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A136" s="3"/>
-      <c r="E136" s="1"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="1"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
-        <f t="shared" ref="A142:A195" si="9">A141+1</f>
-        <v>1</v>
-      </c>
-      <c r="B142" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" t="s">
-        <v>219</v>
-      </c>
-      <c r="D142" t="s">
-        <v>149</v>
-      </c>
-      <c r="E142" t="s">
-        <v>39</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G142" t="s">
-        <v>29</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J142" t="s">
-        <v>17</v>
-      </c>
-      <c r="K142" t="s">
-        <v>74</v>
-      </c>
-      <c r="L142" t="s">
-        <v>76</v>
-      </c>
-      <c r="M142" t="s">
-        <v>86</v>
-      </c>
-      <c r="N142" t="s">
-        <v>106</v>
-      </c>
-      <c r="O142" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="B143" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" t="s">
-        <v>219</v>
-      </c>
-      <c r="D143" t="s">
-        <v>149</v>
-      </c>
-      <c r="E143" t="s">
-        <v>39</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G143" t="s">
-        <v>30</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J143" t="s">
-        <v>17</v>
-      </c>
-      <c r="K143" t="s">
-        <v>74</v>
-      </c>
-      <c r="L143" t="s">
-        <v>76</v>
-      </c>
-      <c r="M143" t="s">
-        <v>86</v>
-      </c>
-      <c r="N143" t="s">
-        <v>106</v>
-      </c>
-      <c r="O143" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="B144" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" t="s">
-        <v>219</v>
-      </c>
-      <c r="D144" t="s">
-        <v>149</v>
-      </c>
-      <c r="E144" t="s">
-        <v>39</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G144" t="s">
-        <v>29</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J144" t="s">
-        <v>17</v>
-      </c>
-      <c r="K144" t="s">
-        <v>74</v>
-      </c>
-      <c r="L144" t="s">
-        <v>76</v>
-      </c>
-      <c r="M144" t="s">
-        <v>86</v>
-      </c>
-      <c r="N144" t="s">
-        <v>106</v>
-      </c>
-      <c r="O144" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="B145" t="s">
-        <v>15</v>
-      </c>
-      <c r="C145" t="s">
-        <v>219</v>
-      </c>
-      <c r="D145" t="s">
-        <v>149</v>
-      </c>
-      <c r="E145" t="s">
-        <v>39</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G145" t="s">
-        <v>30</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J145" t="s">
-        <v>17</v>
-      </c>
-      <c r="K145" t="s">
-        <v>74</v>
-      </c>
-      <c r="L145" t="s">
-        <v>76</v>
-      </c>
-      <c r="M145" t="s">
-        <v>86</v>
-      </c>
-      <c r="N145" t="s">
-        <v>106</v>
-      </c>
-      <c r="O145" t="s">
-        <v>126</v>
-      </c>
+      <c r="G137" t="s">
+        <v>29</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J137" t="s">
+        <v>17</v>
+      </c>
+      <c r="K137" t="s">
+        <v>74</v>
+      </c>
+      <c r="L137" t="s">
+        <v>76</v>
+      </c>
+      <c r="M137" t="s">
+        <v>86</v>
+      </c>
+      <c r="N137" t="s">
+        <v>106</v>
+      </c>
+      <c r="O137" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A138" s="3"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="6"/>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A139" s="3"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="6"/>
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A140" s="3"/>
+      <c r="E140" s="1"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="1"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" ref="A146:A202" si="5">A145+1</f>
+        <v>1</v>
       </c>
       <c r="B146" t="s">
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D146" t="s">
         <v>149</v>
@@ -6912,7 +6866,7 @@
         <v>39</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G146" t="s">
         <v>29</v>
@@ -6941,29 +6895,29 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="B147" t="s">
         <v>15</v>
       </c>
       <c r="C147" t="s">
+        <v>216</v>
+      </c>
+      <c r="D147" t="s">
+        <v>149</v>
+      </c>
+      <c r="E147" t="s">
+        <v>39</v>
+      </c>
+      <c r="F147" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D147" t="s">
-        <v>149</v>
-      </c>
-      <c r="E147" t="s">
-        <v>39</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="J147" t="s">
         <v>17</v>
@@ -6986,29 +6940,22 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D148" t="s">
         <v>149</v>
       </c>
-      <c r="E148" t="s">
-        <v>39</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G148" t="s">
-        <v>29</v>
-      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="6"/>
       <c r="H148" s="1" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="J148" t="s">
         <v>17</v>
@@ -7031,14 +6978,14 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f>A147+1</f>
+        <v>3</v>
       </c>
       <c r="B149" t="s">
         <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D149" t="s">
         <v>149</v>
@@ -7047,7 +6994,7 @@
         <v>39</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -7076,29 +7023,29 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D150" t="s">
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="J150" t="s">
         <v>17</v>
@@ -7121,26 +7068,22 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D151" t="s">
         <v>149</v>
       </c>
-      <c r="F151" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G151" t="s">
-        <v>29</v>
-      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="6"/>
       <c r="H151" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="J151" t="s">
         <v>17</v>
@@ -7163,14 +7106,14 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f>A150+1</f>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D152" t="s">
         <v>149</v>
@@ -7179,7 +7122,7 @@
         <v>39</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="G152" t="s">
         <v>29</v>
@@ -7208,14 +7151,14 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <f t="shared" si="9"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
         <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D153" t="s">
         <v>149</v>
@@ -7224,7 +7167,7 @@
         <v>39</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="G153" t="s">
         <v>29</v>
@@ -7253,14 +7196,14 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <f t="shared" si="9"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D154" t="s">
         <v>149</v>
@@ -7269,7 +7212,7 @@
         <v>39</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -7298,14 +7241,14 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D155" t="s">
         <v>149</v>
@@ -7314,7 +7257,7 @@
         <v>39</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="G155" t="s">
         <v>29</v>
@@ -7343,23 +7286,23 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <f t="shared" si="9"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D156" t="s">
         <v>149</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="G156" t="s">
         <v>29</v>
@@ -7388,8 +7331,8 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
-        <f t="shared" si="9"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
         <v>15</v>
@@ -7397,13 +7340,20 @@
       <c r="C157" t="s">
         <v>216</v>
       </c>
-      <c r="D157" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E157" s="1"/>
-      <c r="F157" s="6"/>
+      <c r="D157" t="s">
+        <v>149</v>
+      </c>
+      <c r="E157" t="s">
+        <v>39</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G157" t="s">
+        <v>29</v>
+      </c>
       <c r="H157" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J157" t="s">
         <v>17</v>
@@ -7426,14 +7376,14 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
-        <f>A156+1</f>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D158" t="s">
         <v>149</v>
@@ -7442,13 +7392,13 @@
         <v>39</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="J158" t="s">
         <v>17</v>
@@ -7471,14 +7421,14 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <f t="shared" si="9"/>
-        <v>17</v>
+        <f>A157+1</f>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D159" t="s">
         <v>149</v>
@@ -7487,7 +7437,7 @@
         <v>39</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -7516,14 +7466,14 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
-        <f t="shared" si="9"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
         <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D160" t="s">
         <v>149</v>
@@ -7532,7 +7482,7 @@
         <v>39</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="G160" t="s">
         <v>29</v>
@@ -7561,14 +7511,14 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="B161" t="s">
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D161" t="s">
         <v>149</v>
@@ -7577,7 +7527,7 @@
         <v>39</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G161" t="s">
         <v>29</v>
@@ -7606,8 +7556,8 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
-        <f t="shared" si="9"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
         <v>15</v>
@@ -7615,13 +7565,20 @@
       <c r="C162" t="s">
         <v>216</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E162" s="1"/>
-      <c r="F162" s="6"/>
+      <c r="D162" t="s">
+        <v>149</v>
+      </c>
+      <c r="E162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G162" t="s">
+        <v>29</v>
+      </c>
       <c r="H162" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J162" t="s">
         <v>17</v>
@@ -7644,14 +7601,14 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
-        <f>A161+1</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="B163" t="s">
         <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D163" t="s">
         <v>149</v>
@@ -7660,7 +7617,7 @@
         <v>39</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="G163" t="s">
         <v>29</v>
@@ -7689,29 +7646,22 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="B164" t="s">
         <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D164" t="s">
         <v>149</v>
       </c>
-      <c r="E164" t="s">
-        <v>39</v>
-      </c>
-      <c r="F164" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G164" t="s">
-        <v>29</v>
-      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="6"/>
       <c r="H164" s="1" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="J164" t="s">
         <v>17</v>
@@ -7734,14 +7684,14 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
-        <f t="shared" si="9"/>
-        <v>22</v>
+        <f>A163+1</f>
+        <v>16</v>
       </c>
       <c r="B165" t="s">
         <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D165" t="s">
         <v>149</v>
@@ -7750,7 +7700,7 @@
         <v>39</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="G165" t="s">
         <v>29</v>
@@ -7779,14 +7729,14 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <f t="shared" si="9"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="B166" t="s">
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D166" t="s">
         <v>149</v>
@@ -7795,7 +7745,7 @@
         <v>39</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G166" t="s">
         <v>29</v>
@@ -7824,8 +7774,8 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="B167" t="s">
         <v>15</v>
@@ -7833,13 +7783,20 @@
       <c r="C167" t="s">
         <v>216</v>
       </c>
-      <c r="D167" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E167" s="1"/>
-      <c r="F167" s="6"/>
+      <c r="D167" t="s">
+        <v>149</v>
+      </c>
+      <c r="E167" t="s">
+        <v>39</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G167" t="s">
+        <v>29</v>
+      </c>
       <c r="H167" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J167" t="s">
         <v>17</v>
@@ -7862,14 +7819,14 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
-        <f>A166+1</f>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="B168" t="s">
         <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D168" t="s">
         <v>149</v>
@@ -7878,7 +7835,7 @@
         <v>39</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -7907,29 +7864,22 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
-        <f t="shared" si="9"/>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="B169" t="s">
         <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D169" t="s">
         <v>149</v>
       </c>
-      <c r="E169" t="s">
-        <v>39</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G169" t="s">
-        <v>29</v>
-      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="6"/>
       <c r="H169" s="1" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="J169" t="s">
         <v>17</v>
@@ -7952,14 +7902,14 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f>A168+1</f>
+        <v>20</v>
       </c>
       <c r="B170" t="s">
         <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D170" t="s">
         <v>149</v>
@@ -7968,7 +7918,7 @@
         <v>39</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -7997,14 +7947,14 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
-        <f t="shared" si="9"/>
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="B171" t="s">
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D171" t="s">
         <v>149</v>
@@ -8013,7 +7963,7 @@
         <v>39</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G171" t="s">
         <v>29</v>
@@ -8042,14 +7992,14 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
-        <f t="shared" si="9"/>
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="B172" t="s">
         <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D172" t="s">
         <v>149</v>
@@ -8058,7 +8008,7 @@
         <v>39</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G172" t="s">
         <v>29</v>
@@ -8087,26 +8037,29 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
-        <f t="shared" si="9"/>
-        <v>29</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="B173" t="s">
         <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D173" t="s">
         <v>149</v>
       </c>
+      <c r="E173" t="s">
+        <v>39</v>
+      </c>
       <c r="F173" s="6" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="G173" t="s">
         <v>29</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="J173" t="s">
         <v>17</v>
@@ -8129,29 +8082,22 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
-        <f t="shared" si="9"/>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="B174" t="s">
         <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D174" t="s">
         <v>149</v>
       </c>
-      <c r="E174" t="s">
-        <v>39</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G174" t="s">
-        <v>29</v>
-      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="6"/>
       <c r="H174" s="1" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="J174" t="s">
         <v>17</v>
@@ -8174,14 +8120,14 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <f t="shared" si="9"/>
-        <v>31</v>
+        <f>A173+1</f>
+        <v>24</v>
       </c>
       <c r="B175" t="s">
         <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D175" t="s">
         <v>149</v>
@@ -8190,7 +8136,7 @@
         <v>39</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G175" t="s">
         <v>29</v>
@@ -8219,14 +8165,14 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
-        <f t="shared" si="9"/>
-        <v>32</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="B176" t="s">
         <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D176" t="s">
         <v>149</v>
@@ -8235,7 +8181,7 @@
         <v>39</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G176" t="s">
         <v>29</v>
@@ -8264,14 +8210,14 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <f t="shared" si="9"/>
-        <v>33</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="B177" t="s">
         <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D177" t="s">
         <v>149</v>
@@ -8280,7 +8226,7 @@
         <v>39</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="G177" t="s">
         <v>29</v>
@@ -8309,14 +8255,14 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
-        <f t="shared" si="9"/>
-        <v>34</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="B178" t="s">
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D178" t="s">
         <v>149</v>
@@ -8325,13 +8271,13 @@
         <v>39</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="G178" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="J178" t="s">
         <v>17</v>
@@ -8354,8 +8300,8 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
-        <f t="shared" si="9"/>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
       <c r="B179" t="s">
         <v>15</v>
@@ -8363,11 +8309,20 @@
       <c r="C179" t="s">
         <v>216</v>
       </c>
-      <c r="D179" s="9" t="s">
-        <v>149</v>
+      <c r="D179" t="s">
+        <v>149</v>
+      </c>
+      <c r="E179" t="s">
+        <v>39</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G179" t="s">
+        <v>29</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="J179" t="s">
         <v>17</v>
@@ -8376,28 +8331,28 @@
         <v>74</v>
       </c>
       <c r="L179" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="M179" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N179" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="O179" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <f t="shared" si="9"/>
-        <v>36</v>
+        <f t="shared" si="5"/>
+        <v>29</v>
       </c>
       <c r="B180" t="s">
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D180" t="s">
         <v>149</v>
@@ -8406,7 +8361,7 @@
         <v>39</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G180" t="s">
         <v>29</v>
@@ -8435,14 +8390,14 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <f t="shared" si="9"/>
-        <v>37</v>
+        <f t="shared" si="5"/>
+        <v>30</v>
       </c>
       <c r="B181" t="s">
         <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D181" t="s">
         <v>149</v>
@@ -8451,13 +8406,13 @@
         <v>39</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="G181" t="s">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="J181" t="s">
         <v>17</v>
@@ -8480,8 +8435,8 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <f t="shared" si="9"/>
-        <v>38</v>
+        <f t="shared" si="5"/>
+        <v>31</v>
       </c>
       <c r="B182" t="s">
         <v>15</v>
@@ -8489,11 +8444,20 @@
       <c r="C182" t="s">
         <v>216</v>
       </c>
-      <c r="D182" s="9" t="s">
-        <v>149</v>
+      <c r="D182" t="s">
+        <v>149</v>
+      </c>
+      <c r="E182" t="s">
+        <v>39</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G182" t="s">
+        <v>29</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="J182" t="s">
         <v>17</v>
@@ -8502,28 +8466,28 @@
         <v>74</v>
       </c>
       <c r="L182" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="M182" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N182" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="O182" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
-        <f t="shared" si="9"/>
-        <v>39</v>
+        <f t="shared" si="5"/>
+        <v>32</v>
       </c>
       <c r="B183" t="s">
         <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D183" t="s">
         <v>149</v>
@@ -8532,7 +8496,7 @@
         <v>39</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="G183" t="s">
         <v>29</v>
@@ -8561,14 +8525,14 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
-        <f t="shared" si="9"/>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="B184" t="s">
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D184" t="s">
         <v>149</v>
@@ -8577,7 +8541,7 @@
         <v>39</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="G184" t="s">
         <v>29</v>
@@ -8606,14 +8570,14 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f t="shared" si="5"/>
+        <v>34</v>
       </c>
       <c r="B185" t="s">
         <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D185" t="s">
         <v>149</v>
@@ -8622,13 +8586,13 @@
         <v>39</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="J185" t="s">
         <v>17</v>
@@ -8651,29 +8615,20 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
-        <f t="shared" si="9"/>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
       <c r="B186" t="s">
         <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D186" t="s">
         <v>149</v>
       </c>
-      <c r="E186" t="s">
-        <v>39</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G186" t="s">
-        <v>29</v>
-      </c>
       <c r="H186" s="1" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="J186" t="s">
         <v>17</v>
@@ -8682,22 +8637,22 @@
         <v>74</v>
       </c>
       <c r="L186" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M186" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N186" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="O186" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
-        <f t="shared" si="9"/>
-        <v>43</v>
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
       <c r="B187" t="s">
         <v>15</v>
@@ -8705,11 +8660,20 @@
       <c r="C187" t="s">
         <v>216</v>
       </c>
-      <c r="D187" s="9" t="s">
-        <v>149</v>
+      <c r="D187" t="s">
+        <v>149</v>
+      </c>
+      <c r="E187" t="s">
+        <v>39</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G187" t="s">
+        <v>29</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="J187" t="s">
         <v>17</v>
@@ -8718,28 +8682,28 @@
         <v>74</v>
       </c>
       <c r="L187" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="M187" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N187" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="O187" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
-        <f t="shared" si="9"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
       <c r="B188" t="s">
         <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D188" t="s">
         <v>149</v>
@@ -8748,13 +8712,13 @@
         <v>39</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="J188" t="s">
         <v>17</v>
@@ -8777,29 +8741,20 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
-        <f t="shared" si="9"/>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>38</v>
       </c>
       <c r="B189" t="s">
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D189" t="s">
         <v>149</v>
       </c>
-      <c r="E189" t="s">
-        <v>39</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G189" t="s">
-        <v>29</v>
-      </c>
       <c r="H189" s="1" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="J189" t="s">
         <v>17</v>
@@ -8808,28 +8763,28 @@
         <v>74</v>
       </c>
       <c r="L189" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M189" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N189" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="O189" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
-        <f t="shared" si="9"/>
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>39</v>
       </c>
       <c r="B190" t="s">
         <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D190" t="s">
         <v>149</v>
@@ -8838,7 +8793,7 @@
         <v>39</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="G190" t="s">
         <v>29</v>
@@ -8867,14 +8822,14 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
-        <f t="shared" si="9"/>
-        <v>47</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="B191" t="s">
         <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D191" t="s">
         <v>149</v>
@@ -8883,7 +8838,7 @@
         <v>39</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G191" t="s">
         <v>29</v>
@@ -8912,8 +8867,8 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
-        <f t="shared" si="9"/>
-        <v>48</v>
+        <f t="shared" si="5"/>
+        <v>41</v>
       </c>
       <c r="B192" t="s">
         <v>15</v>
@@ -8921,11 +8876,20 @@
       <c r="C192" t="s">
         <v>216</v>
       </c>
-      <c r="D192" s="9" t="s">
-        <v>149</v>
+      <c r="D192" t="s">
+        <v>149</v>
+      </c>
+      <c r="E192" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G192" t="s">
+        <v>29</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="J192" t="s">
         <v>17</v>
@@ -8934,28 +8898,28 @@
         <v>74</v>
       </c>
       <c r="L192" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="M192" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N192" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="O192" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
-        <f t="shared" si="9"/>
-        <v>49</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="B193" t="s">
         <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D193" t="s">
         <v>149</v>
@@ -8964,7 +8928,7 @@
         <v>39</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G193" t="s">
         <v>29</v>
@@ -8993,29 +8957,20 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
-        <f t="shared" si="9"/>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>43</v>
       </c>
       <c r="B194" t="s">
         <v>15</v>
       </c>
       <c r="C194" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D194" t="s">
         <v>149</v>
       </c>
-      <c r="E194" t="s">
-        <v>39</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="G194" t="s">
-        <v>30</v>
-      </c>
       <c r="H194" s="1" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="J194" t="s">
         <v>17</v>
@@ -9024,60 +8979,603 @@
         <v>74</v>
       </c>
       <c r="L194" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M194" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N194" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="O194" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" t="s">
+        <v>216</v>
+      </c>
+      <c r="D195" t="s">
+        <v>149</v>
+      </c>
+      <c r="E195" t="s">
+        <v>39</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G195" t="s">
+        <v>29</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J195" t="s">
+        <v>17</v>
+      </c>
+      <c r="K195" t="s">
+        <v>74</v>
+      </c>
+      <c r="L195" t="s">
+        <v>76</v>
+      </c>
+      <c r="M195" t="s">
+        <v>86</v>
+      </c>
+      <c r="N195" t="s">
+        <v>106</v>
+      </c>
+      <c r="O195" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" t="s">
+        <v>216</v>
+      </c>
+      <c r="D196" t="s">
+        <v>149</v>
+      </c>
+      <c r="E196" t="s">
+        <v>39</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G196" t="s">
+        <v>29</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J196" t="s">
+        <v>17</v>
+      </c>
+      <c r="K196" t="s">
+        <v>74</v>
+      </c>
+      <c r="L196" t="s">
+        <v>76</v>
+      </c>
+      <c r="M196" t="s">
+        <v>86</v>
+      </c>
+      <c r="N196" t="s">
+        <v>106</v>
+      </c>
+      <c r="O196" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" t="s">
+        <v>216</v>
+      </c>
+      <c r="D197" t="s">
+        <v>149</v>
+      </c>
+      <c r="E197" t="s">
+        <v>39</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G197" t="s">
+        <v>29</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J197" t="s">
+        <v>17</v>
+      </c>
+      <c r="K197" t="s">
+        <v>74</v>
+      </c>
+      <c r="L197" t="s">
+        <v>76</v>
+      </c>
+      <c r="M197" t="s">
+        <v>86</v>
+      </c>
+      <c r="N197" t="s">
+        <v>106</v>
+      </c>
+      <c r="O197" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" t="s">
+        <v>216</v>
+      </c>
+      <c r="D198" t="s">
+        <v>149</v>
+      </c>
+      <c r="E198" t="s">
+        <v>39</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G198" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J198" t="s">
+        <v>17</v>
+      </c>
+      <c r="K198" t="s">
+        <v>74</v>
+      </c>
+      <c r="L198" t="s">
+        <v>76</v>
+      </c>
+      <c r="M198" t="s">
+        <v>86</v>
+      </c>
+      <c r="N198" t="s">
+        <v>106</v>
+      </c>
+      <c r="O198" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" t="s">
+        <v>213</v>
+      </c>
+      <c r="D199" t="s">
+        <v>149</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J199" t="s">
+        <v>17</v>
+      </c>
+      <c r="K199" t="s">
+        <v>74</v>
+      </c>
+      <c r="L199" t="s">
+        <v>53</v>
+      </c>
+      <c r="M199" t="s">
+        <v>84</v>
+      </c>
+      <c r="N199" t="s">
+        <v>56</v>
+      </c>
+      <c r="O199" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="B200" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" t="s">
+        <v>216</v>
+      </c>
+      <c r="D200" t="s">
+        <v>149</v>
+      </c>
+      <c r="E200" t="s">
+        <v>39</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G200" t="s">
+        <v>29</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J200" t="s">
+        <v>17</v>
+      </c>
+      <c r="K200" t="s">
+        <v>74</v>
+      </c>
+      <c r="L200" t="s">
+        <v>76</v>
+      </c>
+      <c r="M200" t="s">
+        <v>86</v>
+      </c>
+      <c r="N200" t="s">
+        <v>106</v>
+      </c>
+      <c r="O200" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" t="s">
+        <v>216</v>
+      </c>
+      <c r="D201" t="s">
+        <v>149</v>
+      </c>
+      <c r="E201" t="s">
+        <v>39</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G201" t="s">
+        <v>30</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J201" t="s">
+        <v>17</v>
+      </c>
+      <c r="K201" t="s">
+        <v>74</v>
+      </c>
+      <c r="L201" t="s">
+        <v>76</v>
+      </c>
+      <c r="M201" t="s">
+        <v>86</v>
+      </c>
+      <c r="N201" t="s">
+        <v>106</v>
+      </c>
+      <c r="O201" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="B195" t="s">
-        <v>15</v>
-      </c>
-      <c r="C195" t="s">
-        <v>219</v>
-      </c>
-      <c r="D195" t="s">
-        <v>149</v>
-      </c>
-      <c r="E195" t="s">
-        <v>39</v>
-      </c>
-      <c r="F195" s="6" t="s">
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" t="s">
+        <v>216</v>
+      </c>
+      <c r="D202" t="s">
+        <v>149</v>
+      </c>
+      <c r="E202" t="s">
+        <v>39</v>
+      </c>
+      <c r="F202" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G195" t="s">
-        <v>29</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J195" t="s">
-        <v>17</v>
-      </c>
-      <c r="K195" t="s">
-        <v>74</v>
-      </c>
-      <c r="L195" t="s">
-        <v>76</v>
-      </c>
-      <c r="M195" t="s">
-        <v>86</v>
-      </c>
-      <c r="N195" t="s">
-        <v>106</v>
-      </c>
-      <c r="O195" t="s">
+      <c r="G202" t="s">
+        <v>29</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J202" t="s">
+        <v>17</v>
+      </c>
+      <c r="K202" t="s">
+        <v>74</v>
+      </c>
+      <c r="L202" t="s">
+        <v>76</v>
+      </c>
+      <c r="M202" t="s">
+        <v>86</v>
+      </c>
+      <c r="N202" t="s">
+        <v>106</v>
+      </c>
+      <c r="O202" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <f>A149+1</f>
+        <v>4</v>
+      </c>
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" t="s">
+        <v>248</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="6"/>
+      <c r="H205" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J205" t="s">
+        <v>17</v>
+      </c>
+      <c r="K205" t="s">
+        <v>74</v>
+      </c>
+      <c r="L205" t="s">
+        <v>76</v>
+      </c>
+      <c r="M205" t="s">
+        <v>86</v>
+      </c>
+      <c r="N205" t="s">
+        <v>106</v>
+      </c>
+      <c r="O205" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <f t="shared" ref="A206" si="6">A205+1</f>
+        <v>5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" t="s">
+        <v>248</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="6"/>
+      <c r="G206" t="s">
+        <v>235</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J206" t="s">
+        <v>17</v>
+      </c>
+      <c r="K206" t="s">
+        <v>74</v>
+      </c>
+      <c r="L206" t="s">
+        <v>76</v>
+      </c>
+      <c r="M206" t="s">
+        <v>86</v>
+      </c>
+      <c r="N206" t="s">
+        <v>106</v>
+      </c>
+      <c r="O206" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <f>A152+1</f>
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" t="s">
+        <v>248</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E207" s="1"/>
+      <c r="F207" s="6"/>
+      <c r="H207" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J207" t="s">
+        <v>17</v>
+      </c>
+      <c r="K207" t="s">
+        <v>74</v>
+      </c>
+      <c r="L207" t="s">
+        <v>76</v>
+      </c>
+      <c r="M207" t="s">
+        <v>86</v>
+      </c>
+      <c r="N207" t="s">
+        <v>106</v>
+      </c>
+      <c r="O207" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <f t="shared" ref="A208" si="7">A207+1</f>
+        <v>7</v>
+      </c>
+      <c r="B208" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" t="s">
+        <v>248</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="6"/>
+      <c r="G208" t="s">
+        <v>237</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J208" t="s">
+        <v>17</v>
+      </c>
+      <c r="K208" t="s">
+        <v>74</v>
+      </c>
+      <c r="L208" t="s">
+        <v>76</v>
+      </c>
+      <c r="M208" t="s">
+        <v>86</v>
+      </c>
+      <c r="N208" t="s">
+        <v>106</v>
+      </c>
+      <c r="O208" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <f>A154+1</f>
+        <v>8</v>
+      </c>
+      <c r="B209" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" t="s">
+        <v>248</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E209" s="1"/>
+      <c r="F209" s="6"/>
+      <c r="H209" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J209" t="s">
+        <v>17</v>
+      </c>
+      <c r="K209" t="s">
+        <v>74</v>
+      </c>
+      <c r="L209" t="s">
+        <v>76</v>
+      </c>
+      <c r="M209" t="s">
+        <v>86</v>
+      </c>
+      <c r="N209" t="s">
+        <v>106</v>
+      </c>
+      <c r="O209" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <f t="shared" ref="A210" si="8">A209+1</f>
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" t="s">
+        <v>248</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E210" s="1"/>
+      <c r="F210" s="6"/>
+      <c r="G210" t="s">
+        <v>239</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J210" t="s">
+        <v>17</v>
+      </c>
+      <c r="K210" t="s">
+        <v>74</v>
+      </c>
+      <c r="L210" t="s">
+        <v>76</v>
+      </c>
+      <c r="M210" t="s">
+        <v>86</v>
+      </c>
+      <c r="N210" t="s">
+        <v>106</v>
+      </c>
+      <c r="O210" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9089,10 +9587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9118,7 +9616,7 @@
     <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9177,19 +9675,28 @@
         <v>192</v>
       </c>
       <c r="T1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W1" t="s">
+        <v>231</v>
+      </c>
+      <c r="X1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y1" t="s">
         <v>237</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9206,16 +9713,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>145</v>
@@ -9227,7 +9734,7 @@
         <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>163</v>
@@ -9242,13 +9749,13 @@
         <v>182</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S2" t="s">
         <v>193</v>
       </c>
       <c r="T2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U2">
         <v>38523563809</v>
@@ -9259,8 +9766,17 @@
       <c r="W2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
